--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="210">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -330,21 +333,9 @@
     <t>영화 상세      페이지</t>
   </si>
   <si>
-    <t>비주얼 부분에 트레일러 미리보기 버튼</t>
-  </si>
-  <si>
     <t>배치</t>
   </si>
   <si>
-    <t>왼쪽에 영화 이미지와 댓글</t>
-  </si>
-  <si>
-    <t>오른쪽에 영화 정보</t>
-  </si>
-  <si>
-    <t>결제버튼, 찜하기 버튼, 별점 주기</t>
-  </si>
-  <si>
     <t>결제 페이지</t>
   </si>
   <si>
@@ -529,9 +520,6 @@
   </si>
   <si>
     <t>나의 댓글        페이지</t>
-  </si>
-  <si>
-    <t>내가 단 댓글을 박스리스트 형태로 보여줌</t>
   </si>
   <si>
     <t>왼쪽에 영화 포스터 이미지, 오른쪽에 댓글 내용을 별점과 함께 표시</t>
@@ -611,6 +599,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>링크 클릭시 홈페이지</t>
     </r>
@@ -619,6 +609,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -627,6 +619,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>메인으로</t>
     </r>
@@ -635,6 +629,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -643,18 +639,85 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>이동하여 임시 비밀번호로 로그인 가능</t>
     </r>
+  </si>
+  <si>
+    <t>결제하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 페이지를 새 창에서 열기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 올린 댓글을 박스리스트 형태로 보여줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비주얼 부분에 트레일러 미리보기 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽에 영화 이미지와 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽에 영화 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제버튼, 찜하기 버튼, 별점 주기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적법성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -662,17 +725,20 @@
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,14 +769,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -735,16 +795,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,9 +812,7 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="9"/>
       </top>
@@ -765,16 +823,146 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,10 +974,10 @@
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,304 +986,22 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </right>
       <top/>
       <bottom/>
@@ -1103,298 +1009,394 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color theme="1" tint="0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffbfb9b9"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffe9f0f5"/>
-      <rgbColor rgb="ffe9e7e7"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFBFB9B9"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFE9F0F5"/>
+      <rgbColor rgb="FFE9E7E7"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -1520,7 +1522,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1529,7 +1531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1538,7 +1540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1612,7 +1614,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1620,7 +1622,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1639,7 +1641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1669,7 +1671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1695,7 +1697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1721,7 +1723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1747,7 +1749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +1775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1799,7 +1801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,7 +1827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,7 +1853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1877,7 +1879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1890,9 +1892,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1907,7 +1915,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1915,7 +1923,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1934,7 +1942,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1960,7 +1968,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1986,7 +1994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2012,7 +2020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2038,7 +2046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2064,7 +2072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2090,7 +2098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2116,7 +2124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2142,7 +2150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2168,7 +2176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2181,9 +2189,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2197,7 +2211,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2216,7 +2230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2246,7 +2260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2272,7 +2286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2298,7 +2312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2324,7 +2338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2350,7 +2364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2376,7 +2390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2402,7 +2416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2428,7 +2442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2454,7 +2468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2467,37 +2481,43 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV116"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:F40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="73.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6719" style="1" customWidth="1"/>
-    <col min="10" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73.625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2508,7 +2528,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:9" ht="15.95" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2519,7 +2539,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:9" ht="15.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2530,7 +2550,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:9" ht="15.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2541,7 +2561,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:9" ht="15.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2552,1880 +2572,2473 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:9" ht="15.95" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.95" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s" s="12">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" t="s" s="15">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s" s="16">
+      <c r="F8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s" s="17">
+      <c r="G8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s" s="16">
+      <c r="H8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I8" t="s" s="17">
+      <c r="I8" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" t="s" s="18">
+    <row r="9" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="18">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s" s="18">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="19">
+      <c r="E9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" t="s" s="21">
+      <c r="F9" s="58"/>
+      <c r="G9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="21">
+      <c r="H9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s" s="21">
+      <c r="I9" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:9" ht="15.95" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" t="s" s="22">
+      <c r="B10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="26">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" t="s" s="27">
+      <c r="C11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s" s="27">
+      <c r="D11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s" s="28">
+      <c r="E11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="30">
+      <c r="F11" s="39"/>
+      <c r="G11" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" t="s" s="32">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="30">
+      <c r="F12" s="35"/>
+      <c r="G12" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" t="s" s="34">
+      <c r="C13" s="46"/>
+      <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="32">
+      <c r="E13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="35">
+      <c r="F13" s="35"/>
+      <c r="G13" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="15">
         <v>4</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" t="s" s="37">
+      <c r="C14" s="45"/>
+      <c r="D14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s" s="38">
+      <c r="E14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
+      <c r="F14" s="41"/>
+      <c r="G14" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" t="s" s="22">
+      <c r="B15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="26">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="20">
         <v>5</v>
       </c>
-      <c r="C16" t="s" s="27">
+      <c r="C16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s" s="27">
+      <c r="D16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s" s="28">
+      <c r="E16" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="30">
+      <c r="F16" s="39"/>
+      <c r="G16" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" t="s" s="34">
+      <c r="C17" s="46"/>
+      <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s" s="32">
+      <c r="E17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="30">
+      <c r="F17" s="35"/>
+      <c r="G17" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10">
         <v>7</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" t="s" s="34">
+      <c r="C18" s="46"/>
+      <c r="D18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s" s="32">
+      <c r="E18" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="30">
+      <c r="F18" s="35"/>
+      <c r="G18" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10">
         <v>8</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" t="s" s="34">
+      <c r="C19" s="46"/>
+      <c r="D19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s" s="32">
+      <c r="E19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="30">
+      <c r="F19" s="35"/>
+      <c r="G19" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" t="s" s="32">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="30">
+      <c r="F20" s="35"/>
+      <c r="G20" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="10">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="34">
+      <c r="C21" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D21" t="s" s="34">
+      <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E21" t="s" s="32">
+      <c r="E21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="30">
+      <c r="F21" s="35"/>
+      <c r="G21" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10">
         <v>11</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" t="s" s="34">
+      <c r="C22" s="46"/>
+      <c r="D22" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E22" t="s" s="32">
+      <c r="E22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="30">
+      <c r="F22" s="35"/>
+      <c r="G22" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10">
         <v>12</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" t="s" s="32">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="30">
+      <c r="F23" s="35"/>
+      <c r="G23" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" t="s" s="34">
+      <c r="C24" s="46"/>
+      <c r="D24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="s" s="32">
+      <c r="E24" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="30">
+      <c r="F24" s="35"/>
+      <c r="G24" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10">
         <v>14</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" t="s" s="34">
+      <c r="C25" s="46"/>
+      <c r="D25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="s" s="32">
+      <c r="E25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="30">
+      <c r="F25" s="35"/>
+      <c r="G25" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10">
         <v>15</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" t="s" s="34">
+      <c r="C26" s="46"/>
+      <c r="D26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E26" t="s" s="32">
+      <c r="E26" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="30">
+      <c r="F26" s="35"/>
+      <c r="G26" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="10">
         <v>16</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" t="s" s="34">
+      <c r="C27" s="46"/>
+      <c r="D27" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s" s="32">
+      <c r="E27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="35">
+      <c r="F27" s="35"/>
+      <c r="G27" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="15">
         <v>17</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" t="s" s="38">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
+      <c r="F28" s="41"/>
+      <c r="G28" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.95" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" t="s" s="40">
+      <c r="B29" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="26">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="20">
         <v>18</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" t="s" s="27">
+      <c r="C30" s="56"/>
+      <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E30" t="s" s="28">
+      <c r="E30" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="30">
+      <c r="F30" s="39"/>
+      <c r="G30" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="10">
         <v>19</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" t="s" s="34">
+      <c r="C31" s="46"/>
+      <c r="D31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E31" t="s" s="32">
+      <c r="E31" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="30">
+      <c r="F31" s="35"/>
+      <c r="G31" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="10">
         <v>20</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" t="s" s="34">
+      <c r="C32" s="46"/>
+      <c r="D32" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E32" t="s" s="32">
+      <c r="E32" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="30">
+      <c r="F32" s="35"/>
+      <c r="G32" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="10">
         <v>21</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" t="s" s="34">
+      <c r="C33" s="46"/>
+      <c r="D33" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
+      <c r="BQ33" s="5"/>
+      <c r="BR33" s="5"/>
+      <c r="BS33" s="5"/>
+      <c r="BT33" s="5"/>
+      <c r="BU33" s="5"/>
+      <c r="BV33" s="5"/>
+      <c r="BW33" s="5"/>
+      <c r="BX33" s="5"/>
+      <c r="BY33" s="5"/>
+      <c r="BZ33" s="5"/>
+      <c r="CA33" s="5"/>
+      <c r="CB33" s="5"/>
+      <c r="CC33" s="5"/>
+      <c r="CD33" s="5"/>
+      <c r="CE33" s="5"/>
+      <c r="CF33" s="5"/>
+      <c r="CG33" s="5"/>
+      <c r="CH33" s="5"/>
+      <c r="CI33" s="5"/>
+      <c r="CJ33" s="5"/>
+      <c r="CK33" s="5"/>
+      <c r="CL33" s="5"/>
+      <c r="CM33" s="5"/>
+      <c r="CN33" s="5"/>
+      <c r="CO33" s="5"/>
+      <c r="CP33" s="5"/>
+      <c r="CQ33" s="5"/>
+      <c r="CR33" s="5"/>
+      <c r="CS33" s="5"/>
+      <c r="CT33" s="5"/>
+      <c r="CU33" s="5"/>
+      <c r="CV33" s="5"/>
+      <c r="CW33" s="5"/>
+      <c r="CX33" s="5"/>
+      <c r="CY33" s="5"/>
+      <c r="CZ33" s="5"/>
+      <c r="DA33" s="5"/>
+      <c r="DB33" s="5"/>
+      <c r="DC33" s="5"/>
+      <c r="DD33" s="5"/>
+      <c r="DE33" s="5"/>
+      <c r="DF33" s="5"/>
+      <c r="DG33" s="5"/>
+      <c r="DH33" s="5"/>
+      <c r="DI33" s="5"/>
+      <c r="DJ33" s="5"/>
+      <c r="DK33" s="5"/>
+      <c r="DL33" s="5"/>
+      <c r="DM33" s="5"/>
+      <c r="DN33" s="5"/>
+      <c r="DO33" s="5"/>
+      <c r="DP33" s="5"/>
+      <c r="DQ33" s="5"/>
+      <c r="DR33" s="5"/>
+      <c r="DS33" s="5"/>
+      <c r="DT33" s="5"/>
+      <c r="DU33" s="5"/>
+      <c r="DV33" s="5"/>
+      <c r="DW33" s="5"/>
+      <c r="DX33" s="5"/>
+      <c r="DY33" s="5"/>
+      <c r="DZ33" s="5"/>
+      <c r="EA33" s="5"/>
+      <c r="EB33" s="5"/>
+      <c r="EC33" s="5"/>
+      <c r="ED33" s="5"/>
+      <c r="EE33" s="5"/>
+      <c r="EF33" s="5"/>
+      <c r="EG33" s="5"/>
+      <c r="EH33" s="5"/>
+      <c r="EI33" s="5"/>
+      <c r="EJ33" s="5"/>
+      <c r="EK33" s="5"/>
+      <c r="EL33" s="5"/>
+      <c r="EM33" s="5"/>
+      <c r="EN33" s="5"/>
+      <c r="EO33" s="5"/>
+      <c r="EP33" s="5"/>
+      <c r="EQ33" s="5"/>
+      <c r="ER33" s="5"/>
+      <c r="ES33" s="5"/>
+      <c r="ET33" s="5"/>
+      <c r="EU33" s="5"/>
+      <c r="EV33" s="5"/>
+      <c r="EW33" s="5"/>
+      <c r="EX33" s="5"/>
+      <c r="EY33" s="5"/>
+      <c r="EZ33" s="5"/>
+      <c r="FA33" s="5"/>
+      <c r="FB33" s="5"/>
+      <c r="FC33" s="5"/>
+      <c r="FD33" s="5"/>
+      <c r="FE33" s="5"/>
+      <c r="FF33" s="5"/>
+      <c r="FG33" s="5"/>
+      <c r="FH33" s="5"/>
+      <c r="FI33" s="5"/>
+      <c r="FJ33" s="5"/>
+      <c r="FK33" s="5"/>
+      <c r="FL33" s="5"/>
+      <c r="FM33" s="5"/>
+      <c r="FN33" s="5"/>
+      <c r="FO33" s="5"/>
+      <c r="FP33" s="5"/>
+      <c r="FQ33" s="5"/>
+      <c r="FR33" s="5"/>
+      <c r="FS33" s="5"/>
+      <c r="FT33" s="5"/>
+      <c r="FU33" s="5"/>
+      <c r="FV33" s="5"/>
+      <c r="FW33" s="5"/>
+      <c r="FX33" s="5"/>
+      <c r="FY33" s="5"/>
+      <c r="FZ33" s="5"/>
+      <c r="GA33" s="5"/>
+      <c r="GB33" s="5"/>
+      <c r="GC33" s="5"/>
+      <c r="GD33" s="5"/>
+      <c r="GE33" s="5"/>
+      <c r="GF33" s="5"/>
+      <c r="GG33" s="5"/>
+      <c r="GH33" s="5"/>
+      <c r="GI33" s="5"/>
+      <c r="GJ33" s="5"/>
+      <c r="GK33" s="5"/>
+      <c r="GL33" s="5"/>
+      <c r="GM33" s="5"/>
+      <c r="GN33" s="5"/>
+      <c r="GO33" s="5"/>
+      <c r="GP33" s="5"/>
+      <c r="GQ33" s="5"/>
+      <c r="GR33" s="5"/>
+      <c r="GS33" s="5"/>
+      <c r="GT33" s="5"/>
+      <c r="GU33" s="5"/>
+      <c r="GV33" s="5"/>
+      <c r="GW33" s="5"/>
+      <c r="GX33" s="5"/>
+      <c r="GY33" s="5"/>
+      <c r="GZ33" s="5"/>
+      <c r="HA33" s="5"/>
+      <c r="HB33" s="5"/>
+      <c r="HC33" s="5"/>
+      <c r="HD33" s="5"/>
+      <c r="HE33" s="5"/>
+      <c r="HF33" s="5"/>
+      <c r="HG33" s="5"/>
+      <c r="HH33" s="5"/>
+      <c r="HI33" s="5"/>
+      <c r="HJ33" s="5"/>
+      <c r="HK33" s="5"/>
+      <c r="HL33" s="5"/>
+      <c r="HM33" s="5"/>
+      <c r="HN33" s="5"/>
+      <c r="HO33" s="5"/>
+      <c r="HP33" s="5"/>
+      <c r="HQ33" s="5"/>
+      <c r="HR33" s="5"/>
+      <c r="HS33" s="5"/>
+      <c r="HT33" s="5"/>
+      <c r="HU33" s="5"/>
+      <c r="HV33" s="5"/>
+      <c r="HW33" s="5"/>
+      <c r="HX33" s="5"/>
+      <c r="HY33" s="5"/>
+      <c r="HZ33" s="5"/>
+      <c r="IA33" s="5"/>
+      <c r="IB33" s="5"/>
+      <c r="IC33" s="5"/>
+      <c r="ID33" s="5"/>
+      <c r="IE33" s="5"/>
+      <c r="IF33" s="5"/>
+      <c r="IG33" s="5"/>
+      <c r="IH33" s="5"/>
+      <c r="II33" s="5"/>
+      <c r="IJ33" s="5"/>
+      <c r="IK33" s="5"/>
+      <c r="IL33" s="5"/>
+      <c r="IM33" s="5"/>
+      <c r="IN33" s="5"/>
+      <c r="IO33" s="5"/>
+      <c r="IP33" s="5"/>
+      <c r="IQ33" s="5"/>
+      <c r="IR33" s="5"/>
+      <c r="IS33" s="5"/>
+      <c r="IT33" s="5"/>
+      <c r="IU33" s="5"/>
+      <c r="IV33" s="5"/>
+    </row>
+    <row r="34" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="10">
+        <v>22</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E33" t="s" s="32">
+      <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="30">
-        <v>22</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="31"/>
-      <c r="E34" t="s" s="32">
+      <c r="F34" s="35"/>
+      <c r="G34" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="10">
+        <v>23</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="30">
-        <v>23</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="31"/>
-      <c r="E35" t="s" s="32">
+      <c r="F35" s="35"/>
+      <c r="G35" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="10">
+        <v>24</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="35">
-        <v>24</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="36"/>
-      <c r="E36" t="s" s="38">
+      <c r="F36" s="35"/>
+      <c r="G36" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="15">
+        <v>25</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s" s="47">
+      <c r="F37" s="41"/>
+      <c r="G37" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="50">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s" s="51">
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="20">
+        <v>26</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D38" t="s" s="51">
+      <c r="D39" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E38" t="s" s="52">
+      <c r="E39" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="50">
-        <v>26</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" t="s" s="52">
+      <c r="F39" s="39"/>
+      <c r="G39" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="10">
+        <v>27</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="50">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s" s="51">
+      <c r="F40" s="35"/>
+      <c r="G40" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="10">
+        <v>28</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D40" t="s" s="51">
+      <c r="D41" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E40" t="s" s="52">
+      <c r="E41" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-    </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="50">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s" s="51">
+      <c r="F41" s="35"/>
+      <c r="G41" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="10">
+        <v>29</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D41" t="s" s="55">
+      <c r="D42" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E41" t="s" s="52">
+      <c r="E42" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="50">
-        <v>29</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="56"/>
-      <c r="E42" t="s" s="52">
+      <c r="F42" s="35"/>
+      <c r="G42" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="10">
+        <v>30</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="50">
-        <v>30</v>
-      </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="57"/>
-      <c r="E43" t="s" s="52">
+      <c r="F43" s="35"/>
+      <c r="G43" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="10">
+        <v>31</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="50">
-        <v>31</v>
-      </c>
-      <c r="C44" s="54"/>
-      <c r="D44" t="s" s="51">
+      <c r="F44" s="35"/>
+      <c r="G44" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="10">
+        <v>32</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E44" t="s" s="52">
+      <c r="E45" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="50">
-        <v>32</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" t="s" s="55">
+      <c r="F45" s="35"/>
+      <c r="G45" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="10">
+        <v>33</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E45" t="s" s="52">
+      <c r="E46" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="50">
-        <v>33</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="57"/>
-      <c r="E46" t="s" s="52">
+      <c r="F46" s="35"/>
+      <c r="G46" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="10">
+        <v>34</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="50">
-        <v>34</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" t="s" s="51">
+      <c r="F47" s="35"/>
+      <c r="G47" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:256" ht="15.95" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="10">
+        <v>35</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E47" t="s" s="52">
+      <c r="E48" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="50">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s" s="51">
+      <c r="F48" s="35"/>
+      <c r="G48" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="10">
+        <v>36</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D48" t="s" s="51">
+      <c r="D49" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E48" t="s" s="52">
+      <c r="E49" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-    </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="50">
-        <v>36</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" t="s" s="51">
+      <c r="F49" s="35"/>
+      <c r="G49" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="10">
+        <v>37</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E49" t="s" s="52">
+      <c r="E50" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="50">
-        <v>37</v>
-      </c>
-      <c r="C50" s="54"/>
-      <c r="D50" t="s" s="51">
+      <c r="F50" s="35"/>
+      <c r="G50" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="15">
+        <v>38</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E50" t="s" s="52">
+      <c r="E51" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-    </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" t="s" s="40">
+      <c r="F51" s="41"/>
+      <c r="G51" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="43"/>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="26">
-        <v>38</v>
-      </c>
-      <c r="C52" t="s" s="58">
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="55"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="20">
+        <v>39</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s" s="27">
+      <c r="D53" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E52" t="s" s="28">
+      <c r="E53" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="30">
-        <v>39</v>
-      </c>
-      <c r="C53" s="59"/>
-      <c r="D53" t="s" s="34">
+      <c r="F53" s="39"/>
+      <c r="G53" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="10">
+        <v>40</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E53" t="s" s="32">
+      <c r="E54" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="30">
-        <v>40</v>
-      </c>
-      <c r="C54" t="s" s="60">
+      <c r="F54" s="35"/>
+      <c r="G54" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="10">
+        <v>41</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D54" t="s" s="34">
+      <c r="D55" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E54" t="s" s="32">
+      <c r="E55" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-    </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="30">
-        <v>41</v>
-      </c>
-      <c r="C55" s="59"/>
-      <c r="D55" t="s" s="34">
+      <c r="F55" s="35"/>
+      <c r="G55" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="10">
+        <v>42</v>
+      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E55" t="s" s="32">
+      <c r="E56" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="61"/>
-      <c r="B56" s="30">
-        <v>42</v>
-      </c>
-      <c r="C56" s="59"/>
-      <c r="D56" t="s" s="34">
+      <c r="F56" s="35"/>
+      <c r="G56" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="10">
+        <v>43</v>
+      </c>
+      <c r="C57" s="43"/>
+      <c r="D57" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E56" t="s" s="32">
+      <c r="E57" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-    </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="62"/>
-      <c r="B57" s="30">
-        <v>43</v>
-      </c>
-      <c r="C57" t="s" s="60">
+      <c r="F57" s="35"/>
+      <c r="G57" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="10">
+        <v>44</v>
+      </c>
+      <c r="C58" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D57" t="s" s="34">
+      <c r="D58" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E57" t="s" s="32">
+      <c r="E58" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="30">
-        <v>44</v>
-      </c>
-      <c r="C58" s="59"/>
-      <c r="D58" t="s" s="34">
+      <c r="F58" s="35"/>
+      <c r="G58" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="10">
+        <v>45</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E58" t="s" s="32">
+      <c r="E59" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="30">
-        <v>45</v>
-      </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="31"/>
-      <c r="E59" t="s" s="32">
+      <c r="F59" s="35"/>
+      <c r="G59" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="10">
+        <v>46</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-    </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="62"/>
-      <c r="B60" s="30">
-        <v>46</v>
-      </c>
-      <c r="C60" t="s" s="60">
+      <c r="F60" s="35"/>
+      <c r="G60" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="10">
+        <v>47</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" t="s" s="32">
+      <c r="D61" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" s="63"/>
-      <c r="B61" s="30">
-        <v>47</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" t="s" s="34">
+      <c r="E61" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="30"/>
+      <c r="G61" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="10">
+        <v>48</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="67"/>
+      <c r="G62" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="10">
+        <v>49</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="67"/>
+      <c r="G63" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="10">
+        <v>50</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.7" customHeight="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="10">
+        <v>51</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E61" t="s" s="32">
+      <c r="D65" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-    </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="30">
-        <v>48</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" t="s" s="32">
+      <c r="E65" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="30">
-        <v>49</v>
-      </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" t="s" s="32">
+      <c r="F65" s="35"/>
+      <c r="G65" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.7" customHeight="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="10">
+        <v>52</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" ht="16.75" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="30">
-        <v>50</v>
-      </c>
-      <c r="C64" t="s" s="60">
+      <c r="D66" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D64" t="s" s="34">
+      <c r="E66" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E64" t="s" s="32">
+      <c r="F66" s="35"/>
+      <c r="G66" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="10">
+        <v>53</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-    </row>
-    <row r="65" ht="16.75" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="30">
-        <v>51</v>
-      </c>
-      <c r="C65" t="s" s="60">
+      <c r="D67" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D65" t="s" s="34">
+      <c r="E67" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E65" t="s" s="32">
+      <c r="F67" s="35"/>
+      <c r="G67" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="10">
+        <v>54</v>
+      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" ht="16" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="30">
+      <c r="F68" s="35"/>
+      <c r="G68" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="10">
+        <v>55</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="10">
+        <v>56</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="10">
+        <v>57</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="35"/>
+      <c r="G71" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="10">
+        <v>58</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="10">
+        <v>59</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C66" t="s" s="60">
-        <v>116</v>
-      </c>
-      <c r="D66" t="s" s="34">
-        <v>117</v>
-      </c>
-      <c r="E66" t="s" s="32">
-        <v>118</v>
-      </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="30">
-        <v>53</v>
-      </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="31"/>
-      <c r="E67" t="s" s="32">
-        <v>119</v>
-      </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-    </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="30">
+      <c r="E73" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="35"/>
+      <c r="G73" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="10">
+        <v>60</v>
+      </c>
+      <c r="C74" s="43"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="10">
+        <v>61</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="35"/>
+      <c r="G75" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="10">
+        <v>62</v>
+      </c>
+      <c r="C76" s="43"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" s="35"/>
+      <c r="G76" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="10">
+        <v>63</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" s="35"/>
+      <c r="G77" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="10">
+        <v>64</v>
+      </c>
+      <c r="C78" s="43"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" s="35"/>
+      <c r="G78" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="10">
+        <v>65</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="35"/>
+      <c r="G79" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="10">
+        <v>66</v>
+      </c>
+      <c r="C80" s="43"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="35"/>
+      <c r="G80" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="10">
+        <v>67</v>
+      </c>
+      <c r="C81" s="43"/>
+      <c r="D81" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="35"/>
+      <c r="G81" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="10">
+        <v>68</v>
+      </c>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="35"/>
+      <c r="G82" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="10">
+        <v>69</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="35"/>
+      <c r="G83" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="10">
+        <v>70</v>
+      </c>
+      <c r="C84" s="46"/>
+      <c r="D84" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="31"/>
-      <c r="E68" t="s" s="32">
-        <v>120</v>
-      </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-    </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="30">
-        <v>55</v>
-      </c>
-      <c r="C69" s="59"/>
-      <c r="D69" t="s" s="34">
-        <v>121</v>
-      </c>
-      <c r="E69" t="s" s="32">
-        <v>122</v>
-      </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-    </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="30">
-        <v>56</v>
-      </c>
-      <c r="C70" t="s" s="60">
-        <v>123</v>
-      </c>
-      <c r="D70" t="s" s="34">
-        <v>124</v>
-      </c>
-      <c r="E70" t="s" s="32">
-        <v>125</v>
-      </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-    </row>
-    <row r="71" ht="16" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="30">
-        <v>57</v>
-      </c>
-      <c r="C71" s="59"/>
-      <c r="D71" t="s" s="34">
-        <v>126</v>
-      </c>
-      <c r="E71" t="s" s="32">
-        <v>127</v>
-      </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-    </row>
-    <row r="72" ht="16" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="30">
-        <v>58</v>
-      </c>
-      <c r="C72" s="59"/>
-      <c r="D72" t="s" s="34">
-        <v>52</v>
-      </c>
-      <c r="E72" t="s" s="32">
-        <v>128</v>
-      </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-    </row>
-    <row r="73" ht="16" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="30">
-        <v>59</v>
-      </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="31"/>
-      <c r="E73" t="s" s="32">
-        <v>129</v>
-      </c>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" ht="16" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="30">
-        <v>60</v>
-      </c>
-      <c r="C74" t="s" s="60">
-        <v>130</v>
-      </c>
-      <c r="D74" t="s" s="34">
-        <v>131</v>
-      </c>
-      <c r="E74" t="s" s="32">
-        <v>132</v>
-      </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" ht="16" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="30">
-        <v>61</v>
-      </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="31"/>
-      <c r="E75" t="s" s="32">
-        <v>133</v>
-      </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" ht="16" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="30">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s" s="60">
-        <v>134</v>
-      </c>
-      <c r="D76" t="s" s="34">
-        <v>135</v>
-      </c>
-      <c r="E76" t="s" s="32">
-        <v>136</v>
-      </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-    </row>
-    <row r="77" ht="16" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="30">
-        <v>63</v>
-      </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="31"/>
-      <c r="E77" t="s" s="32">
-        <v>137</v>
-      </c>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" ht="16" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="30">
-        <v>64</v>
-      </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="31"/>
-      <c r="E78" t="s" s="32">
-        <v>138</v>
-      </c>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-    </row>
-    <row r="79" ht="16" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="30">
-        <v>65</v>
-      </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="31"/>
-      <c r="E79" t="s" s="32">
-        <v>139</v>
-      </c>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-    </row>
-    <row r="80" ht="16" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="30">
-        <v>66</v>
-      </c>
-      <c r="C80" s="59"/>
-      <c r="D80" t="s" s="60">
-        <v>140</v>
-      </c>
-      <c r="E80" t="s" s="32">
-        <v>141</v>
-      </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-    </row>
-    <row r="81" ht="16" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="30">
-        <v>67</v>
-      </c>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" t="s" s="32">
+      <c r="E84" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-    </row>
-    <row r="82" ht="16" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="30">
-        <v>68</v>
-      </c>
-      <c r="C82" t="s" s="34">
+      <c r="F84" s="35"/>
+      <c r="G84" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="10">
+        <v>71</v>
+      </c>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D82" t="s" s="34">
+      <c r="F85" s="35"/>
+      <c r="G85" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="10">
+        <v>72</v>
+      </c>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E82" t="s" s="32">
+      <c r="F86" s="35"/>
+      <c r="G86" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A87" s="6"/>
+      <c r="B87" s="10">
+        <v>73</v>
+      </c>
+      <c r="C87" s="46"/>
+      <c r="D87" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" ht="16" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="30">
-        <v>69</v>
-      </c>
-      <c r="C83" s="31"/>
-      <c r="D83" t="s" s="34">
-        <v>54</v>
-      </c>
-      <c r="E83" t="s" s="32">
+      <c r="E87" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-    </row>
-    <row r="84" ht="16" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="30">
-        <v>70</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" t="s" s="32">
+      <c r="F87" s="35"/>
+      <c r="G87" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="10">
+        <v>74</v>
+      </c>
+      <c r="C88" s="46"/>
+      <c r="D88" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" ht="16" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="30">
-        <v>71</v>
-      </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" t="s" s="32">
+      <c r="E88" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-    </row>
-    <row r="86" ht="16" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="30">
-        <v>72</v>
-      </c>
-      <c r="C86" s="31"/>
-      <c r="D86" t="s" s="34">
+      <c r="F88" s="35"/>
+      <c r="G88" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="10">
+        <v>75</v>
+      </c>
+      <c r="C89" s="46"/>
+      <c r="D89" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="E86" t="s" s="32">
+      <c r="E89" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-    </row>
-    <row r="87" ht="16" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="30">
-        <v>73</v>
-      </c>
-      <c r="C87" s="31"/>
-      <c r="D87" t="s" s="34">
+      <c r="F89" s="35"/>
+      <c r="G89" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A90" s="6"/>
+      <c r="B90" s="10">
+        <v>76</v>
+      </c>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E87" t="s" s="32">
+      <c r="F90" s="35"/>
+      <c r="G90" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A91" s="6"/>
+      <c r="B91" s="10">
+        <v>77</v>
+      </c>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-    </row>
-    <row r="88" ht="16" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="30">
-        <v>74</v>
-      </c>
-      <c r="C88" s="31"/>
-      <c r="D88" t="s" s="34">
+      <c r="F91" s="35"/>
+      <c r="G91" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" s="11"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A92" s="6"/>
+      <c r="B92" s="10">
+        <v>78</v>
+      </c>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E88" t="s" s="32">
+      <c r="F92" s="35"/>
+      <c r="G92" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A93" s="6"/>
+      <c r="B93" s="10">
+        <v>79</v>
+      </c>
+      <c r="C93" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-    </row>
-    <row r="89" ht="16" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="30">
-        <v>75</v>
-      </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" t="s" s="32">
+      <c r="D93" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-    </row>
-    <row r="90" ht="16" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="30">
-        <v>76</v>
-      </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" t="s" s="32">
+      <c r="E93" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-    </row>
-    <row r="91" ht="16" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="30">
-        <v>77</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" t="s" s="32">
+      <c r="F93" s="35"/>
+      <c r="G93" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="10">
+        <v>80</v>
+      </c>
+      <c r="C94" s="51"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-    </row>
-    <row r="92" ht="16" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="30">
-        <v>78</v>
-      </c>
-      <c r="C92" t="s" s="34">
+      <c r="F94" s="35"/>
+      <c r="G94" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10">
+        <v>81</v>
+      </c>
+      <c r="C95" s="51"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D92" t="s" s="34">
+      <c r="F95" s="35"/>
+      <c r="G95" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A96" s="8"/>
+      <c r="B96" s="10">
+        <v>82</v>
+      </c>
+      <c r="C96" s="51"/>
+      <c r="D96" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E92" t="s" s="32">
+      <c r="E96" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-    </row>
-    <row r="93" ht="16" customHeight="1">
-      <c r="A93" s="61"/>
-      <c r="B93" s="30">
-        <v>79</v>
-      </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" t="s" s="32">
+      <c r="F96" s="35"/>
+      <c r="G96" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A97" s="6"/>
+      <c r="B97" s="10">
+        <v>83</v>
+      </c>
+      <c r="C97" s="51"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-    </row>
-    <row r="94" ht="16" customHeight="1">
-      <c r="A94" s="62"/>
-      <c r="B94" s="30">
-        <v>80</v>
-      </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" t="s" s="32">
+      <c r="F97" s="35"/>
+      <c r="G97" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="10">
+        <v>84</v>
+      </c>
+      <c r="C98" s="51"/>
+      <c r="D98" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-    </row>
-    <row r="95" ht="16" customHeight="1">
-      <c r="A95" s="63"/>
-      <c r="B95" s="30">
-        <v>81</v>
-      </c>
-      <c r="C95" s="31"/>
-      <c r="D95" t="s" s="60">
+      <c r="E98" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E95" t="s" s="32">
+      <c r="F98" s="35"/>
+      <c r="G98" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A99" s="6"/>
+      <c r="B99" s="10">
+        <v>85</v>
+      </c>
+      <c r="C99" s="51"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-    </row>
-    <row r="96" ht="16" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="30">
-        <v>82</v>
-      </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="59"/>
-      <c r="E96" t="s" s="32">
+      <c r="F99" s="35"/>
+      <c r="G99" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.7" customHeight="1">
+      <c r="A100" s="6"/>
+      <c r="B100" s="10">
+        <v>86</v>
+      </c>
+      <c r="C100" s="51"/>
+      <c r="D100" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-    </row>
-    <row r="97" ht="16" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="30">
-        <v>86</v>
-      </c>
-      <c r="C97" s="31"/>
-      <c r="D97" t="s" s="60">
+      <c r="E100" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E97" t="s" s="32">
+      <c r="F100" s="35"/>
+      <c r="G100" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A101" s="6"/>
+      <c r="B101" s="10">
+        <v>87</v>
+      </c>
+      <c r="C101" s="51"/>
+      <c r="D101" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-    </row>
-    <row r="98" ht="16" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="30">
-        <v>87</v>
-      </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="59"/>
-      <c r="E98" t="s" s="32">
+      <c r="E101" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101" s="37"/>
+      <c r="G101" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A102" s="6"/>
+      <c r="B102" s="10">
+        <v>88</v>
+      </c>
+      <c r="C102" s="51"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
-    </row>
-    <row r="99" ht="16.75" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="30">
-        <v>88</v>
-      </c>
-      <c r="C99" s="31"/>
-      <c r="D99" t="s" s="60">
+      <c r="F102" s="35"/>
+      <c r="G102" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A103" s="6"/>
+      <c r="B103" s="10">
+        <v>89</v>
+      </c>
+      <c r="C103" s="51"/>
+      <c r="D103" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="E99" t="s" s="32">
+      <c r="E103" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-    </row>
-    <row r="100" ht="33" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="30">
-        <v>89</v>
-      </c>
-      <c r="C100" s="31"/>
-      <c r="D100" t="s" s="60">
+      <c r="F103" s="35"/>
+      <c r="G103" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A104" s="6"/>
+      <c r="B104" s="10">
+        <v>90</v>
+      </c>
+      <c r="C104" s="51"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="E100" t="s" s="32">
+      <c r="F104" s="35"/>
+      <c r="G104" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A105" s="6"/>
+      <c r="B105" s="10">
+        <v>91</v>
+      </c>
+      <c r="C105" s="51"/>
+      <c r="D105" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-    </row>
-    <row r="101" ht="16" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="30">
-        <v>90</v>
-      </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="59"/>
-      <c r="E101" t="s" s="32">
+      <c r="E105" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-    </row>
-    <row r="102" ht="16" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="30">
-        <v>91</v>
-      </c>
-      <c r="C102" s="31"/>
-      <c r="D102" t="s" s="60">
+      <c r="F105" s="35"/>
+      <c r="G105" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A106" s="6"/>
+      <c r="B106" s="10">
+        <v>92</v>
+      </c>
+      <c r="C106" s="51"/>
+      <c r="D106" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="E102" t="s" s="32">
+      <c r="E106" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-    </row>
-    <row r="103" ht="16" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="30">
-        <v>92</v>
-      </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="59"/>
-      <c r="E103" t="s" s="32">
+      <c r="F106" s="35"/>
+      <c r="G106" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A107" s="6"/>
+      <c r="B107" s="10">
+        <v>93</v>
+      </c>
+      <c r="C107" s="51"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-    </row>
-    <row r="104" ht="16" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="30">
-        <v>93</v>
-      </c>
-      <c r="C104" s="31"/>
-      <c r="D104" t="s" s="34">
+      <c r="F107" s="35"/>
+      <c r="G107" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.7" customHeight="1">
+      <c r="A108" s="6"/>
+      <c r="B108" s="10">
+        <v>94</v>
+      </c>
+      <c r="C108" s="51"/>
+      <c r="D108" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E104" t="s" s="32">
+      <c r="E108" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-    </row>
-    <row r="105" ht="16" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="30">
-        <v>94</v>
-      </c>
-      <c r="C105" s="31"/>
-      <c r="D105" t="s" s="60">
+      <c r="F108" s="35"/>
+      <c r="G108" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A109" s="6"/>
+      <c r="B109" s="10">
+        <v>95</v>
+      </c>
+      <c r="C109" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="E105" t="s" s="32">
+      <c r="D109" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-    </row>
-    <row r="106" ht="16" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="30">
-        <v>95</v>
-      </c>
-      <c r="C106" s="31"/>
-      <c r="D106" s="59"/>
-      <c r="E106" t="s" s="32">
+      <c r="E109" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-    </row>
-    <row r="107" ht="16.75" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="30">
+      <c r="F109" s="33"/>
+      <c r="G109" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A110" s="6"/>
+      <c r="B110" s="10">
         <v>96</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" t="s" s="60">
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E107" t="s" s="32">
+      <c r="F110" s="33"/>
+      <c r="G110" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A111" s="6"/>
+      <c r="B111" s="10">
+        <v>97</v>
+      </c>
+      <c r="C111" s="46"/>
+      <c r="D111" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
-    </row>
-    <row r="108" ht="16" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="30">
-        <v>97</v>
-      </c>
-      <c r="C108" t="s" s="64">
+      <c r="E111" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D108" t="s" s="64">
+      <c r="F111" s="33"/>
+      <c r="G111" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A112" s="6"/>
+      <c r="B112" s="10">
+        <v>98</v>
+      </c>
+      <c r="C112" s="46"/>
+      <c r="D112" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="E108" t="s" s="65">
+      <c r="E112" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-    </row>
-    <row r="109" ht="16" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="30">
-        <v>98</v>
-      </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="66"/>
-      <c r="E109" t="s" s="65">
+      <c r="F112" s="33"/>
+      <c r="G112" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A113" s="6"/>
+      <c r="B113" s="10">
+        <v>99</v>
+      </c>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-    </row>
-    <row r="110" ht="16" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="30">
-        <v>99</v>
-      </c>
-      <c r="C110" s="45"/>
-      <c r="D110" t="s" s="34">
+      <c r="F113" s="33"/>
+      <c r="G113" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A114" s="6"/>
+      <c r="B114" s="10">
+        <v>100</v>
+      </c>
+      <c r="C114" s="46"/>
+      <c r="D114" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E110" t="s" s="65">
+      <c r="E114" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-    </row>
-    <row r="111" ht="16" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="30">
-        <v>100</v>
-      </c>
-      <c r="C111" s="45"/>
-      <c r="D111" t="s" s="64">
+      <c r="F114" s="33"/>
+      <c r="G114" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A115" s="6"/>
+      <c r="B115" s="10">
+        <v>101</v>
+      </c>
+      <c r="C115" s="46"/>
+      <c r="D115" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="E111" t="s" s="65">
+      <c r="E115" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-    </row>
-    <row r="112" ht="16" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="30">
-        <v>101</v>
-      </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="66"/>
-      <c r="E112" t="s" s="65">
+      <c r="F115" s="33"/>
+      <c r="G115" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H115" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" s="11"/>
+    </row>
+    <row r="116" spans="1:9" ht="16.7" customHeight="1">
+      <c r="A116" s="6"/>
+      <c r="B116" s="10">
+        <v>102</v>
+      </c>
+      <c r="C116" s="46"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-    </row>
-    <row r="113" ht="16" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="30">
-        <v>102</v>
-      </c>
-      <c r="C113" s="45"/>
-      <c r="D113" t="s" s="34">
-        <v>193</v>
-      </c>
-      <c r="E113" t="s" s="65">
-        <v>194</v>
-      </c>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-    </row>
-    <row r="114" ht="16" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="30">
-        <v>103</v>
-      </c>
-      <c r="C114" s="45"/>
-      <c r="D114" t="s" s="67">
-        <v>195</v>
-      </c>
-      <c r="E114" t="s" s="65">
-        <v>196</v>
-      </c>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-    </row>
-    <row r="115" ht="16.75" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="30">
-        <v>104</v>
-      </c>
-      <c r="C115" s="66"/>
-      <c r="D115" s="68"/>
-      <c r="E115" t="s" s="65">
-        <v>197</v>
-      </c>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H116" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I116" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C60:C63"/>
+  <mergeCells count="153">
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="B52:I52"/>
     <mergeCell ref="B29:I29"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="C82:C91"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C93:C108"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D115:D116"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C92:C106"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4433,85 +5046,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="69" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="69" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="69" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="69" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="69" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="69" customWidth="1"/>
+    <col min="1" max="256" width="8.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4519,8 +5127,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4528,85 +5137,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="70" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="70" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="70" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="70" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="70" customWidth="1"/>
+    <col min="1" max="256" width="8.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4614,10 +5218,23 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
+<mso:customUI xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui">
+  <mso:ribbon>
+    <mso:qat>
+      <mso:documentControls>
+        <mso:control idQ="mso:MergeCells" visible="true"/>
+      </mso:documentControls>
+    </mso:qat>
+  </mso:ribbon>
+</mso:customUI>
 </file>
--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fun64\Downloads\Semi-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
@@ -11,6 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$7:$I$116</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -130,12 +138,6 @@
   </si>
   <si>
     <t>섹션</t>
-  </si>
-  <si>
-    <t>에디터 추천 형식의 오늘의 영화 노출</t>
-  </si>
-  <si>
-    <t>댓글을 선정하여 오늘의 영화 옆에 노출</t>
   </si>
   <si>
     <t>최신영화</t>
@@ -713,12 +715,18 @@
     <t>적법성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>에디터 추천 형식의 주간 영화 노출</t>
+  </si>
+  <si>
+    <t>댓글을 선정하여 주간 영화 옆에 노출</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1201,121 +1209,121 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,6 +1400,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2499,14 +2515,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:IV116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:F40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
@@ -2517,7 +2536,7 @@
     <col min="10" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.95" customHeight="1">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2528,7 +2547,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.95" customHeight="1">
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2539,7 +2558,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1">
+    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2550,7 +2569,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15.95" customHeight="1">
+    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2561,7 +2580,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="15.95" customHeight="1">
+    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2572,7 +2591,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15.95" customHeight="1">
+    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2583,26 +2602,26 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="15.95" customHeight="1">
+    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.95" customHeight="1">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="23" t="s">
         <v>2</v>
       </c>
@@ -2619,7 +2638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="26" t="s">
         <v>7</v>
@@ -2630,10 +2649,10 @@
       <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="24" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.95" customHeight="1">
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="52" t="s">
         <v>14</v>
@@ -2657,83 +2676,83 @@
       <c r="H10" s="54"/>
       <c r="I10" s="55"/>
     </row>
-    <row r="11" spans="1:9" ht="15.95" customHeight="1">
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="15.95" customHeight="1">
+    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="34" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1">
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="15.95" customHeight="1">
+    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="15">
         <v>4</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1">
+    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="52" t="s">
         <v>23</v>
@@ -2746,255 +2765,255 @@
       <c r="H15" s="54"/>
       <c r="I15" s="55"/>
     </row>
-    <row r="16" spans="1:9" ht="15.95" customHeight="1">
+    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="20">
         <v>5</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" ht="15.95" customHeight="1">
+    <row r="17" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="15.95" customHeight="1">
+    <row r="18" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="10">
         <v>7</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="15.95" customHeight="1">
+    <row r="19" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="10">
         <v>8</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="15.95" customHeight="1">
+    <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="34" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="15.95" customHeight="1">
+    <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="10">
         <v>10</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="39" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="15.95" customHeight="1">
+    <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="10">
         <v>11</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="44" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="35"/>
+      <c r="E22" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="49"/>
       <c r="G22" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="15.95" customHeight="1">
+    <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="10">
         <v>12</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="35"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="49"/>
       <c r="G23" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="15.95" customHeight="1">
+    <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="35"/>
+        <v>38</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="49"/>
       <c r="G24" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="15.95" customHeight="1">
+    <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="10">
         <v>14</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="35"/>
+        <v>40</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="49"/>
       <c r="G25" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="15.95" customHeight="1">
+    <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="10">
         <v>15</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="35"/>
+        <v>42</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="49"/>
       <c r="G26" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="15.95" customHeight="1">
+    <row r="27" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="10">
         <v>16</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="35"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="49"/>
       <c r="G27" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="15.95" customHeight="1">
+    <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="15">
         <v>17</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="51"/>
       <c r="G28" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.95" customHeight="1">
+    <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
@@ -3004,78 +3023,78 @@
       <c r="H29" s="54"/>
       <c r="I29" s="55"/>
     </row>
-    <row r="30" spans="1:9" ht="15.95" customHeight="1">
+    <row r="30" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="20">
         <v>18</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="47"/>
       <c r="G30" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" ht="15.95" customHeight="1">
+    <row r="31" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="10">
         <v>19</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="49"/>
       <c r="G31" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="15.95" customHeight="1">
+    <row r="32" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="10">
         <v>20</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="49"/>
       <c r="G32" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:256" ht="15.95" customHeight="1">
+    <row r="33" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="10">
         <v>21</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="37"/>
+        <v>191</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="67"/>
       <c r="G33" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3327,80 +3346,80 @@
       <c r="IU33" s="5"/>
       <c r="IV33" s="5"/>
     </row>
-    <row r="34" spans="1:256" ht="15.95" customHeight="1">
+    <row r="34" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="10">
         <v>22</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="35"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="49"/>
       <c r="G34" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:256" ht="15.95" customHeight="1">
+    <row r="35" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10">
         <v>23</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="35"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="49"/>
       <c r="G35" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:256" ht="15.95" customHeight="1">
+    <row r="36" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="10">
         <v>24</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="35"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="49"/>
       <c r="G36" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:256" ht="15.95" customHeight="1">
+    <row r="37" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="15">
         <v>25</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="51"/>
       <c r="G37" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:256" ht="15.95" customHeight="1">
+    <row r="38" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="53"/>
       <c r="D38" s="53"/>
@@ -3410,257 +3429,257 @@
       <c r="H38" s="54"/>
       <c r="I38" s="55"/>
     </row>
-    <row r="39" spans="1:256" ht="15.95" customHeight="1">
+    <row r="39" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="20">
         <v>26</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="39"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:256" ht="15.95" customHeight="1">
+    <row r="40" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="10">
         <v>27</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="35"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="49"/>
       <c r="G40" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:256" ht="15.95" customHeight="1">
+    <row r="41" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="10">
         <v>28</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:256" ht="15.95" customHeight="1">
+    <row r="42" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="10">
         <v>29</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:256" ht="15.95" customHeight="1">
+    <row r="43" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="10">
         <v>30</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="35"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="49"/>
       <c r="G43" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:256" ht="15.95" customHeight="1">
+    <row r="44" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="10">
         <v>31</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="35"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="49"/>
       <c r="G44" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:256" ht="15.95" customHeight="1">
+    <row r="45" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="10">
         <v>32</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="49"/>
       <c r="G45" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:256" ht="15.95" customHeight="1">
+    <row r="46" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="10">
         <v>33</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="35"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="49"/>
       <c r="G46" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:256" ht="15.95" customHeight="1">
+    <row r="47" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="10">
         <v>34</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="35"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="49"/>
       <c r="G47" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:256" ht="15.95" customHeight="1">
+    <row r="48" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="10">
         <v>35</v>
       </c>
-      <c r="C48" s="46"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="49"/>
       <c r="G48" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" ht="15.95" customHeight="1">
+    <row r="49" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="10">
         <v>36</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" ht="15.95" customHeight="1">
+    <row r="50" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="10">
         <v>37</v>
       </c>
-      <c r="C50" s="46"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="35"/>
+        <v>82</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="49"/>
       <c r="G50" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9" ht="15.95" customHeight="1">
+    <row r="51" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="15">
         <v>38</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="41"/>
+        <v>84</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="51"/>
       <c r="G51" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.95" customHeight="1">
+    <row r="52" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
@@ -3670,1218 +3689,1347 @@
       <c r="H52" s="54"/>
       <c r="I52" s="55"/>
     </row>
-    <row r="53" spans="1:9" ht="15.95" customHeight="1">
+    <row r="53" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="20">
         <v>39</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="39"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" ht="15.95" customHeight="1">
+    <row r="54" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="10">
         <v>40</v>
       </c>
-      <c r="C54" s="43"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="49"/>
       <c r="G54" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="15.95" customHeight="1">
+    <row r="55" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="10">
         <v>41</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" s="35"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="1:9" ht="15.95" customHeight="1">
+    <row r="56" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="10">
         <v>42</v>
       </c>
-      <c r="C56" s="43"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="35"/>
+        <v>95</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="49"/>
       <c r="G56" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="1:9" ht="15.95" customHeight="1">
+    <row r="57" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="10">
         <v>43</v>
       </c>
-      <c r="C57" s="43"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="49"/>
       <c r="G57" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="1:9" ht="15.95" customHeight="1">
+    <row r="58" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="10">
         <v>44</v>
       </c>
-      <c r="C58" s="42" t="s">
-        <v>100</v>
+      <c r="C58" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="35"/>
+        <v>88</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="49"/>
       <c r="G58" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" ht="15.95" customHeight="1">
+    <row r="59" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="10">
         <v>45</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="35"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F59" s="49"/>
       <c r="G59" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="1:9" ht="15.95" customHeight="1">
+    <row r="60" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="10">
         <v>46</v>
       </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" s="35"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="49"/>
       <c r="G60" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="1:9" ht="15.95" customHeight="1">
+    <row r="61" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="10">
         <v>47</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="68" t="s">
-        <v>105</v>
+      <c r="C61" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>103</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F61" s="30"/>
       <c r="G61" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
     </row>
-    <row r="62" spans="1:9" ht="15.95" customHeight="1">
+    <row r="62" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="10">
         <v>48</v>
       </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="F62" s="67"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="64"/>
       <c r="G62" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="1:9" ht="15.95" customHeight="1">
+    <row r="63" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="10">
         <v>49</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="F63" s="67"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="64"/>
       <c r="G63" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:9" ht="15.95" customHeight="1">
+    <row r="64" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="10">
         <v>50</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="36" t="s">
+      <c r="C64" s="40"/>
+      <c r="D64" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F64" s="35"/>
+      <c r="E64" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="49"/>
       <c r="G64" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:9" ht="16.7" customHeight="1">
+    <row r="65" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="10">
         <v>51</v>
       </c>
       <c r="C65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F65" s="35"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:9" ht="16.7" customHeight="1">
+    <row r="66" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="10">
         <v>52</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="35"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
     </row>
-    <row r="67" spans="1:9" ht="15.95" customHeight="1">
+    <row r="67" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="10">
         <v>53</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F67" s="35"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:9" ht="15.95" customHeight="1">
+    <row r="68" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="10">
         <v>54</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="35"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F68" s="49"/>
       <c r="G68" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
     </row>
-    <row r="69" spans="1:9" ht="15.95" customHeight="1">
+    <row r="69" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="10">
         <v>55</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F69" s="35"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="49"/>
       <c r="G69" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I69" s="11"/>
     </row>
-    <row r="70" spans="1:9" ht="15.95" customHeight="1">
+    <row r="70" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="10">
         <v>56</v>
       </c>
-      <c r="C70" s="43"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="49"/>
       <c r="G70" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="1:9" ht="15.95" customHeight="1">
+    <row r="71" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="10">
         <v>57</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="49"/>
       <c r="G71" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" ht="15.95" customHeight="1">
+    <row r="72" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="10">
         <v>58</v>
       </c>
-      <c r="C72" s="43"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="49"/>
       <c r="G72" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I72" s="11"/>
     </row>
-    <row r="73" spans="1:9" ht="15.95" customHeight="1">
+    <row r="73" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="10">
         <v>59</v>
       </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F73" s="35"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="49"/>
       <c r="G73" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
     </row>
-    <row r="74" spans="1:9" ht="15.95" customHeight="1">
+    <row r="74" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="10">
         <v>60</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" s="35"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="49"/>
       <c r="G74" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
     </row>
-    <row r="75" spans="1:9" ht="15.95" customHeight="1">
+    <row r="75" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="10">
         <v>61</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="35"/>
+      <c r="F75" s="49"/>
       <c r="G75" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="1:9" ht="15.95" customHeight="1">
+    <row r="76" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="10">
         <v>62</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="35"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="49"/>
       <c r="G76" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="1:9" ht="15.95" customHeight="1">
+    <row r="77" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="10">
         <v>63</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F77" s="35"/>
+      <c r="F77" s="49"/>
       <c r="G77" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
     </row>
-    <row r="78" spans="1:9" ht="15.95" customHeight="1">
+    <row r="78" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="10">
         <v>64</v>
       </c>
-      <c r="C78" s="43"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" s="35"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="49"/>
       <c r="G78" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
     </row>
-    <row r="79" spans="1:9" ht="15.95" customHeight="1">
+    <row r="79" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="10">
         <v>65</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F79" s="35"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" s="49"/>
       <c r="G79" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
     </row>
-    <row r="80" spans="1:9" ht="15.95" customHeight="1">
+    <row r="80" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="10">
         <v>66</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F80" s="35"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="49"/>
       <c r="G80" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
     </row>
-    <row r="81" spans="1:9" ht="15.95" customHeight="1">
+    <row r="81" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="10">
         <v>67</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F81" s="35"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="49"/>
       <c r="G81" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
     </row>
-    <row r="82" spans="1:9" ht="15.95" customHeight="1">
+    <row r="82" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="10">
         <v>68</v>
       </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="F82" s="35"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82" s="49"/>
       <c r="G82" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
     </row>
-    <row r="83" spans="1:9" ht="15.95" customHeight="1">
+    <row r="83" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="10">
         <v>69</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F83" s="35"/>
+      <c r="F83" s="49"/>
       <c r="G83" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
     </row>
-    <row r="84" spans="1:9" ht="15.95" customHeight="1">
+    <row r="84" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="10">
         <v>70</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F84" s="35"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="49"/>
       <c r="G84" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
     </row>
-    <row r="85" spans="1:9" ht="15.95" customHeight="1">
+    <row r="85" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="10">
         <v>71</v>
       </c>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" s="35"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" s="49"/>
       <c r="G85" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
     </row>
-    <row r="86" spans="1:9" ht="15.95" customHeight="1">
+    <row r="86" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="10">
         <v>72</v>
       </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F86" s="35"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="49"/>
       <c r="G86" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87" spans="1:9" ht="15.95" customHeight="1">
+    <row r="87" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="10">
         <v>73</v>
       </c>
-      <c r="C87" s="46"/>
+      <c r="C87" s="40"/>
       <c r="D87" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F87" s="35"/>
+        <v>143</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" s="49"/>
       <c r="G87" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
     </row>
-    <row r="88" spans="1:9" ht="15.95" customHeight="1">
+    <row r="88" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="10">
         <v>74</v>
       </c>
-      <c r="C88" s="46"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F88" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F88" s="49"/>
       <c r="G88" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:9" ht="15.95" customHeight="1">
+    <row r="89" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="10">
         <v>75</v>
       </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F89" s="35"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="49"/>
       <c r="G89" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="1:9" ht="15.95" customHeight="1">
+    <row r="90" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="10">
         <v>76</v>
       </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F90" s="35"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" s="49"/>
       <c r="G90" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I90" s="11"/>
     </row>
-    <row r="91" spans="1:9" ht="15.95" customHeight="1">
+    <row r="91" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="10">
         <v>77</v>
       </c>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F91" s="35"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F91" s="49"/>
       <c r="G91" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I91" s="11"/>
     </row>
-    <row r="92" spans="1:9" ht="15.95" customHeight="1">
+    <row r="92" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="10">
         <v>78</v>
       </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F92" s="35"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="49"/>
       <c r="G92" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I92" s="11"/>
     </row>
-    <row r="93" spans="1:9" ht="15.95" customHeight="1">
+    <row r="93" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="10">
         <v>79</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="D93" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F93" s="35"/>
+      <c r="F93" s="49"/>
       <c r="G93" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="1:9" ht="15.95" customHeight="1">
+    <row r="94" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="10">
         <v>80</v>
       </c>
-      <c r="C94" s="51"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="F94" s="35"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="49"/>
       <c r="G94" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
     </row>
-    <row r="95" spans="1:9" ht="15.95" customHeight="1">
+    <row r="95" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="10">
         <v>81</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F95" s="35"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F95" s="49"/>
       <c r="G95" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
     </row>
-    <row r="96" spans="1:9" ht="15.95" customHeight="1">
+    <row r="96" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="10">
         <v>82</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96" s="35"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96" s="49"/>
       <c r="G96" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
     </row>
-    <row r="97" spans="1:9" ht="15.95" customHeight="1">
+    <row r="97" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="10">
         <v>83</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F97" s="35"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" s="49"/>
       <c r="G97" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="1:9" ht="15.95" customHeight="1">
+    <row r="98" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="10">
         <v>84</v>
       </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="E98" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F98" s="35"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" s="49"/>
       <c r="G98" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
     </row>
-    <row r="99" spans="1:9" ht="15.95" customHeight="1">
+    <row r="99" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="10">
         <v>85</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F99" s="35"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F99" s="49"/>
       <c r="G99" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
     </row>
-    <row r="100" spans="1:9" ht="16.7" customHeight="1">
+    <row r="100" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="10">
         <v>86</v>
       </c>
-      <c r="C100" s="51"/>
+      <c r="C100" s="62"/>
       <c r="D100" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="F100" s="35"/>
+        <v>163</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" s="49"/>
       <c r="G100" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
     </row>
-    <row r="101" spans="1:9" ht="16.5" customHeight="1">
+    <row r="101" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="10">
         <v>87</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E101" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F101" s="37"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="67"/>
       <c r="G101" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
     </row>
-    <row r="102" spans="1:9" ht="15.95" customHeight="1">
+    <row r="102" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="10">
         <v>88</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F102" s="35"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="49"/>
       <c r="G102" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
     </row>
-    <row r="103" spans="1:9" ht="15.95" customHeight="1">
+    <row r="103" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="10">
         <v>89</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E103" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="F103" s="35"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="F103" s="49"/>
       <c r="G103" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
     </row>
-    <row r="104" spans="1:9" ht="15.95" customHeight="1">
+    <row r="104" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="10">
         <v>90</v>
       </c>
-      <c r="C104" s="51"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F104" s="35"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" s="49"/>
       <c r="G104" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
     </row>
-    <row r="105" spans="1:9" ht="15.95" customHeight="1">
+    <row r="105" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="10">
         <v>91</v>
       </c>
-      <c r="C105" s="51"/>
+      <c r="C105" s="62"/>
       <c r="D105" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="F105" s="35"/>
+        <v>170</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F105" s="49"/>
       <c r="G105" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
     </row>
-    <row r="106" spans="1:9" ht="15.95" customHeight="1">
+    <row r="106" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="10">
         <v>92</v>
       </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E106" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="F106" s="35"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E106" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F106" s="49"/>
       <c r="G106" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="1:9" ht="15.95" customHeight="1">
+    <row r="107" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="10">
         <v>93</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="F107" s="35"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="F107" s="49"/>
       <c r="G107" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
     </row>
-    <row r="108" spans="1:9" ht="16.7" customHeight="1">
+    <row r="108" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="10">
         <v>94</v>
       </c>
-      <c r="C108" s="51"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E108" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="F108" s="35"/>
+        <v>175</v>
+      </c>
+      <c r="E108" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F108" s="49"/>
       <c r="G108" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
     </row>
-    <row r="109" spans="1:9" ht="15.95" customHeight="1">
+    <row r="109" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="10">
         <v>95</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="C109" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D109" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F109" s="33"/>
+      <c r="F109" s="70"/>
       <c r="G109" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
     </row>
-    <row r="110" spans="1:9" ht="15.95" customHeight="1">
+    <row r="110" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="10">
         <v>96</v>
       </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F110" s="33"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" s="70"/>
       <c r="G110" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
     </row>
-    <row r="111" spans="1:9" ht="15.95" customHeight="1">
+    <row r="111" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="10">
         <v>97</v>
       </c>
-      <c r="C111" s="46"/>
+      <c r="C111" s="40"/>
       <c r="D111" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F111" s="33"/>
+        <v>181</v>
+      </c>
+      <c r="E111" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="F111" s="70"/>
       <c r="G111" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
     </row>
-    <row r="112" spans="1:9" ht="15.95" customHeight="1">
+    <row r="112" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="10">
         <v>98</v>
       </c>
-      <c r="C112" s="46"/>
-      <c r="D112" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E112" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F112" s="33"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" s="70"/>
       <c r="G112" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
     </row>
-    <row r="113" spans="1:9" ht="15.95" customHeight="1">
+    <row r="113" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="10">
         <v>99</v>
       </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F113" s="33"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113" s="70"/>
       <c r="G113" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
     </row>
-    <row r="114" spans="1:9" ht="15.95" customHeight="1">
+    <row r="114" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="10">
         <v>100</v>
       </c>
-      <c r="C114" s="46"/>
+      <c r="C114" s="40"/>
       <c r="D114" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E114" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F114" s="33"/>
+        <v>186</v>
+      </c>
+      <c r="E114" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="F114" s="70"/>
       <c r="G114" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
     </row>
-    <row r="115" spans="1:9" ht="15.95" customHeight="1">
+    <row r="115" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="10">
         <v>101</v>
       </c>
-      <c r="C115" s="46"/>
-      <c r="D115" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E115" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F115" s="33"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="F115" s="70"/>
       <c r="G115" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I115" s="11"/>
     </row>
-    <row r="116" spans="1:9" ht="16.7" customHeight="1">
+    <row r="116" spans="1:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="10">
         <v>102</v>
       </c>
-      <c r="C116" s="46"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="F116" s="33"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="F116" s="70"/>
       <c r="G116" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H116" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I116" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="153">
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C93:C108"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="C42:C48"/>
@@ -4904,141 +5052,12 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="C30:C37"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C93:C108"/>
-    <mergeCell ref="C109:C116"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5046,80 +5065,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="256" width="8.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5137,80 +5156,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="256" width="8.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -32,9 +32,6 @@
     <t>프로젝트 명</t>
   </si>
   <si>
-    <t>와쟈()</t>
-  </si>
-  <si>
     <t>작성일</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>소분류</t>
-  </si>
-  <si>
-    <t>요구사항 내용</t>
   </si>
   <si>
     <t>우선순위</t>
@@ -720,6 +714,14 @@
   </si>
   <si>
     <t>댓글을 선정하여 주간 영화 옆에 노출</t>
+  </si>
+  <si>
+    <t>요구사항 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와쟈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1182,9 +1184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,8 +1211,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1230,18 +1310,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,86 +1319,41 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -2522,7 +2545,7 @@
   <dimension ref="A1:IV116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I116"/>
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2604,95 +2627,95 @@
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>5</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="H9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>11</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="B10" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="27" t="s">
-        <v>194</v>
+      <c r="F11" s="43"/>
+      <c r="G11" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -2702,14 +2725,14 @@
       <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="28" t="s">
-        <v>194</v>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2719,16 +2742,16 @@
       <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="28" t="s">
-        <v>195</v>
+        <v>17</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2738,50 +2761,50 @@
       <c r="B14" s="15">
         <v>4</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="29" t="s">
-        <v>195</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
+      <c r="B15" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="20">
         <v>5</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="27" t="s">
-        <v>194</v>
+      <c r="F16" s="43"/>
+      <c r="G16" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -2791,16 +2814,16 @@
       <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="28" t="s">
-        <v>194</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2810,16 +2833,16 @@
       <c r="B18" s="10">
         <v>7</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="28" t="s">
-        <v>195</v>
+        <v>27</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2829,16 +2852,16 @@
       <c r="B19" s="10">
         <v>8</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="28" t="s">
-        <v>194</v>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2848,14 +2871,14 @@
       <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="28" t="s">
-        <v>195</v>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2865,18 +2888,18 @@
       <c r="B21" s="10">
         <v>10</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="28" t="s">
-        <v>196</v>
+      <c r="F21" s="35"/>
+      <c r="G21" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -2886,16 +2909,16 @@
       <c r="B22" s="10">
         <v>11</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="28" t="s">
-        <v>195</v>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2905,14 +2928,14 @@
       <c r="B23" s="10">
         <v>12</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="28" t="s">
-        <v>195</v>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2922,16 +2945,16 @@
       <c r="B24" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="40"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="28" t="s">
-        <v>194</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2941,16 +2964,16 @@
       <c r="B25" s="10">
         <v>14</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="28" t="s">
-        <v>194</v>
+        <v>38</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2960,16 +2983,16 @@
       <c r="B26" s="10">
         <v>15</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="28" t="s">
-        <v>194</v>
+        <v>40</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -2979,16 +3002,16 @@
       <c r="B27" s="10">
         <v>16</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="28" t="s">
-        <v>195</v>
+      <c r="C27" s="45"/>
+      <c r="D27" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -2998,46 +3021,46 @@
       <c r="B28" s="15">
         <v>17</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="29" t="s">
-        <v>195</v>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
+      <c r="B29" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="20">
         <v>18</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="27" t="s">
-        <v>195</v>
+        <v>46</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -3047,16 +3070,16 @@
       <c r="B31" s="10">
         <v>19</v>
       </c>
-      <c r="C31" s="40"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="28" t="s">
-        <v>194</v>
+        <v>48</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3066,16 +3089,16 @@
       <c r="B32" s="10">
         <v>20</v>
       </c>
-      <c r="C32" s="40"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="28" t="s">
-        <v>194</v>
+        <v>50</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3085,16 +3108,16 @@
       <c r="B33" s="10">
         <v>21</v>
       </c>
-      <c r="C33" s="40"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="28" t="s">
-        <v>195</v>
+        <v>189</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3351,16 +3374,16 @@
       <c r="B34" s="10">
         <v>22</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="28" t="s">
-        <v>194</v>
+      <c r="C34" s="45"/>
+      <c r="D34" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3370,14 +3393,14 @@
       <c r="B35" s="10">
         <v>23</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="28" t="s">
-        <v>195</v>
+      <c r="C35" s="45"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3387,14 +3410,14 @@
       <c r="B36" s="10">
         <v>24</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="28" t="s">
-        <v>194</v>
+      <c r="C36" s="45"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -3404,48 +3427,48 @@
       <c r="B37" s="15">
         <v>25</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="29" t="s">
-        <v>196</v>
+      <c r="C37" s="58"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
+      <c r="B38" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="20">
         <v>26</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="27" t="s">
-        <v>195</v>
+      <c r="F39" s="43"/>
+      <c r="G39" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -3455,14 +3478,14 @@
       <c r="B40" s="10">
         <v>27</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="28" t="s">
-        <v>197</v>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3473,17 +3496,17 @@
         <v>28</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="28" t="s">
-        <v>197</v>
+      <c r="F41" s="35"/>
+      <c r="G41" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -3493,18 +3516,18 @@
       <c r="B42" s="10">
         <v>29</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="28" t="s">
-        <v>198</v>
+      <c r="F42" s="35"/>
+      <c r="G42" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3514,14 +3537,14 @@
       <c r="B43" s="10">
         <v>30</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="28" t="s">
-        <v>198</v>
+      <c r="C43" s="45"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3531,14 +3554,14 @@
       <c r="B44" s="10">
         <v>31</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="28" t="s">
-        <v>197</v>
+      <c r="C44" s="45"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3548,16 +3571,16 @@
       <c r="B45" s="10">
         <v>32</v>
       </c>
-      <c r="C45" s="40"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="28" t="s">
-        <v>198</v>
+        <v>70</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -3567,16 +3590,16 @@
       <c r="B46" s="10">
         <v>33</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="28" t="s">
-        <v>198</v>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3586,14 +3609,14 @@
       <c r="B47" s="10">
         <v>34</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="28" t="s">
-        <v>198</v>
+      <c r="C47" s="45"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -3603,16 +3626,16 @@
       <c r="B48" s="10">
         <v>35</v>
       </c>
-      <c r="C48" s="40"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="28" t="s">
-        <v>197</v>
+        <v>75</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -3622,18 +3645,18 @@
       <c r="B49" s="10">
         <v>36</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="28" t="s">
-        <v>197</v>
+      <c r="F49" s="35"/>
+      <c r="G49" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -3643,16 +3666,16 @@
       <c r="B50" s="10">
         <v>37</v>
       </c>
-      <c r="C50" s="40"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="28" t="s">
-        <v>197</v>
+        <v>80</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -3662,50 +3685,50 @@
       <c r="B51" s="15">
         <v>38</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="29" t="s">
-        <v>197</v>
+        <v>82</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="28" t="s">
+        <v>195</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="55"/>
+      <c r="B52" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="54"/>
     </row>
     <row r="53" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="20">
         <v>39</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="27" t="s">
-        <v>198</v>
+      <c r="F53" s="43"/>
+      <c r="G53" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -3715,16 +3738,16 @@
       <c r="B54" s="10">
         <v>40</v>
       </c>
-      <c r="C54" s="60"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="28" t="s">
-        <v>197</v>
+        <v>88</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -3734,18 +3757,18 @@
       <c r="B55" s="10">
         <v>41</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="28" t="s">
-        <v>197</v>
+      <c r="F55" s="35"/>
+      <c r="G55" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -3755,16 +3778,16 @@
       <c r="B56" s="10">
         <v>42</v>
       </c>
-      <c r="C56" s="60"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="28" t="s">
-        <v>197</v>
+        <v>93</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -3774,16 +3797,16 @@
       <c r="B57" s="10">
         <v>43</v>
       </c>
-      <c r="C57" s="60"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="28" t="s">
-        <v>197</v>
+        <v>88</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -3793,18 +3816,18 @@
       <c r="B58" s="10">
         <v>44</v>
       </c>
-      <c r="C58" s="59" t="s">
-        <v>98</v>
+      <c r="C58" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="28" t="s">
-        <v>199</v>
+        <v>86</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -3814,16 +3837,16 @@
       <c r="B59" s="10">
         <v>45</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="28" t="s">
-        <v>198</v>
+      <c r="C59" s="47"/>
+      <c r="D59" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -3833,14 +3856,14 @@
       <c r="B60" s="10">
         <v>46</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="28" t="s">
-        <v>197</v>
+      <c r="C60" s="47"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -3850,18 +3873,18 @@
       <c r="B61" s="10">
         <v>47</v>
       </c>
-      <c r="C61" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F61" s="30"/>
-      <c r="G61" s="28" t="s">
-        <v>198</v>
+      <c r="C61" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="29"/>
+      <c r="G61" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -3871,14 +3894,14 @@
       <c r="B62" s="10">
         <v>48</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="28" t="s">
-        <v>198</v>
+      <c r="C62" s="45"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="41"/>
+      <c r="G62" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -3888,16 +3911,16 @@
       <c r="B63" s="10">
         <v>49</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="28" t="s">
-        <v>197</v>
+      <c r="C63" s="45"/>
+      <c r="D63" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="41"/>
+      <c r="G63" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -3907,16 +3930,16 @@
       <c r="B64" s="10">
         <v>50</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="E64" s="66" t="s">
+      <c r="C64" s="45"/>
+      <c r="D64" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="28" t="s">
-        <v>197</v>
+      <c r="E64" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -3927,17 +3950,17 @@
         <v>51</v>
       </c>
       <c r="C65" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="28" t="s">
-        <v>197</v>
+      <c r="F65" s="35"/>
+      <c r="G65" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -3948,17 +3971,17 @@
         <v>52</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="28" t="s">
-        <v>198</v>
+      <c r="F66" s="35"/>
+      <c r="G66" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -3968,18 +3991,18 @@
       <c r="B67" s="10">
         <v>53</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="28" t="s">
-        <v>197</v>
+      <c r="F67" s="35"/>
+      <c r="G67" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -3989,14 +4012,14 @@
       <c r="B68" s="10">
         <v>54</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="28" t="s">
-        <v>197</v>
+      <c r="C68" s="47"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -4006,17 +4029,17 @@
       <c r="B69" s="10">
         <v>55</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>206</v>
+      <c r="C69" s="47"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="I69" s="11"/>
     </row>
@@ -4025,16 +4048,16 @@
       <c r="B70" s="10">
         <v>56</v>
       </c>
-      <c r="C70" s="60"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="28" t="s">
-        <v>197</v>
+        <v>113</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -4044,21 +4067,21 @@
       <c r="B71" s="10">
         <v>57</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="49"/>
-      <c r="G71" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>206</v>
+      <c r="F71" s="35"/>
+      <c r="G71" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="I71" s="11"/>
     </row>
@@ -4067,19 +4090,19 @@
       <c r="B72" s="10">
         <v>58</v>
       </c>
-      <c r="C72" s="60"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>206</v>
+        <v>118</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="I72" s="11"/>
     </row>
@@ -4088,16 +4111,16 @@
       <c r="B73" s="10">
         <v>59</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="28" t="s">
-        <v>197</v>
+      <c r="C73" s="47"/>
+      <c r="D73" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="35"/>
+      <c r="G73" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -4107,14 +4130,14 @@
       <c r="B74" s="10">
         <v>60</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="28" t="s">
-        <v>198</v>
+      <c r="C74" s="47"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -4124,18 +4147,18 @@
       <c r="B75" s="10">
         <v>61</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D75" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F75" s="49"/>
-      <c r="G75" s="28" t="s">
-        <v>197</v>
+      <c r="F75" s="35"/>
+      <c r="G75" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -4145,14 +4168,14 @@
       <c r="B76" s="10">
         <v>62</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="28" t="s">
-        <v>197</v>
+      <c r="C76" s="47"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="35"/>
+      <c r="G76" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -4162,18 +4185,18 @@
       <c r="B77" s="10">
         <v>63</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C77" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="28" t="s">
-        <v>199</v>
+      <c r="F77" s="35"/>
+      <c r="G77" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -4183,14 +4206,14 @@
       <c r="B78" s="10">
         <v>64</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="28" t="s">
-        <v>197</v>
+      <c r="C78" s="47"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="35"/>
+      <c r="G78" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -4200,14 +4223,14 @@
       <c r="B79" s="10">
         <v>65</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="28" t="s">
-        <v>197</v>
+      <c r="C79" s="47"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" s="35"/>
+      <c r="G79" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -4217,14 +4240,14 @@
       <c r="B80" s="10">
         <v>66</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F80" s="49"/>
-      <c r="G80" s="28" t="s">
-        <v>197</v>
+      <c r="C80" s="47"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="35"/>
+      <c r="G80" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -4234,16 +4257,16 @@
       <c r="B81" s="10">
         <v>67</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="F81" s="49"/>
-      <c r="G81" s="28" t="s">
-        <v>197</v>
+      <c r="C81" s="47"/>
+      <c r="D81" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" s="35"/>
+      <c r="G81" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -4253,14 +4276,14 @@
       <c r="B82" s="10">
         <v>68</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="28" t="s">
-        <v>197</v>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="35"/>
+      <c r="G82" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -4270,18 +4293,18 @@
       <c r="B83" s="10">
         <v>69</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="49"/>
-      <c r="G83" s="28" t="s">
-        <v>197</v>
+      <c r="F83" s="35"/>
+      <c r="G83" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -4291,16 +4314,16 @@
       <c r="B84" s="10">
         <v>70</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E84" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="28" t="s">
-        <v>198</v>
+      <c r="C84" s="45"/>
+      <c r="D84" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -4310,14 +4333,14 @@
       <c r="B85" s="10">
         <v>71</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F85" s="49"/>
-      <c r="G85" s="28" t="s">
-        <v>199</v>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="35"/>
+      <c r="G85" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -4327,14 +4350,14 @@
       <c r="B86" s="10">
         <v>72</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="28" t="s">
-        <v>198</v>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86" s="35"/>
+      <c r="G86" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -4344,16 +4367,16 @@
       <c r="B87" s="10">
         <v>73</v>
       </c>
-      <c r="C87" s="40"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="F87" s="49"/>
-      <c r="G87" s="28" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" s="35"/>
+      <c r="G87" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -4363,16 +4386,16 @@
       <c r="B88" s="10">
         <v>74</v>
       </c>
-      <c r="C88" s="40"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E88" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="28" t="s">
-        <v>198</v>
+        <v>143</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -4382,19 +4405,19 @@
       <c r="B89" s="10">
         <v>75</v>
       </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>207</v>
+      <c r="C89" s="45"/>
+      <c r="D89" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" s="35"/>
+      <c r="G89" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="I89" s="11"/>
     </row>
@@ -4403,17 +4426,17 @@
       <c r="B90" s="10">
         <v>76</v>
       </c>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H90" s="28" t="s">
-        <v>207</v>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90" s="35"/>
+      <c r="G90" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="I90" s="11"/>
     </row>
@@ -4422,17 +4445,17 @@
       <c r="B91" s="10">
         <v>77</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F91" s="49"/>
-      <c r="G91" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H91" s="28" t="s">
-        <v>207</v>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="35"/>
+      <c r="G91" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="I91" s="11"/>
     </row>
@@ -4441,17 +4464,17 @@
       <c r="B92" s="10">
         <v>78</v>
       </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F92" s="49"/>
-      <c r="G92" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H92" s="28" t="s">
-        <v>207</v>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" s="35"/>
+      <c r="G92" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="I92" s="11"/>
     </row>
@@ -4460,18 +4483,18 @@
       <c r="B93" s="10">
         <v>79</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D93" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="28" t="s">
-        <v>198</v>
+      <c r="F93" s="35"/>
+      <c r="G93" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
@@ -4481,14 +4504,14 @@
       <c r="B94" s="10">
         <v>80</v>
       </c>
-      <c r="C94" s="62"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="28" t="s">
-        <v>198</v>
+      <c r="C94" s="48"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -4498,14 +4521,14 @@
       <c r="B95" s="10">
         <v>81</v>
       </c>
-      <c r="C95" s="62"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="28" t="s">
-        <v>198</v>
+      <c r="C95" s="48"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F95" s="35"/>
+      <c r="G95" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -4515,16 +4538,16 @@
       <c r="B96" s="10">
         <v>82</v>
       </c>
-      <c r="C96" s="62"/>
-      <c r="D96" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="F96" s="49"/>
-      <c r="G96" s="28" t="s">
-        <v>199</v>
+      <c r="C96" s="48"/>
+      <c r="D96" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="35"/>
+      <c r="G96" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -4534,14 +4557,14 @@
       <c r="B97" s="10">
         <v>83</v>
       </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="28" t="s">
-        <v>197</v>
+      <c r="C97" s="48"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F97" s="35"/>
+      <c r="G97" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -4551,16 +4574,16 @@
       <c r="B98" s="10">
         <v>84</v>
       </c>
-      <c r="C98" s="62"/>
-      <c r="D98" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="E98" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="28" t="s">
-        <v>197</v>
+      <c r="C98" s="48"/>
+      <c r="D98" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" s="35"/>
+      <c r="G98" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -4570,14 +4593,14 @@
       <c r="B99" s="10">
         <v>85</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="28" t="s">
-        <v>197</v>
+      <c r="C99" s="48"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99" s="35"/>
+      <c r="G99" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -4587,16 +4610,16 @@
       <c r="B100" s="10">
         <v>86</v>
       </c>
-      <c r="C100" s="62"/>
+      <c r="C100" s="48"/>
       <c r="D100" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E100" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="F100" s="49"/>
-      <c r="G100" s="28" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F100" s="35"/>
+      <c r="G100" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -4606,16 +4629,16 @@
       <c r="B101" s="10">
         <v>87</v>
       </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E101" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="F101" s="67"/>
-      <c r="G101" s="28" t="s">
-        <v>198</v>
+      <c r="C101" s="48"/>
+      <c r="D101" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" s="37"/>
+      <c r="G101" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -4625,14 +4648,14 @@
       <c r="B102" s="10">
         <v>88</v>
       </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="28" t="s">
-        <v>198</v>
+      <c r="C102" s="48"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F102" s="35"/>
+      <c r="G102" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -4642,16 +4665,16 @@
       <c r="B103" s="10">
         <v>89</v>
       </c>
-      <c r="C103" s="62"/>
-      <c r="D103" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="E103" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F103" s="49"/>
-      <c r="G103" s="28" t="s">
-        <v>197</v>
+      <c r="C103" s="48"/>
+      <c r="D103" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F103" s="35"/>
+      <c r="G103" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -4661,14 +4684,14 @@
       <c r="B104" s="10">
         <v>90</v>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F104" s="49"/>
-      <c r="G104" s="28" t="s">
-        <v>198</v>
+      <c r="C104" s="48"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F104" s="35"/>
+      <c r="G104" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -4678,16 +4701,16 @@
       <c r="B105" s="10">
         <v>91</v>
       </c>
-      <c r="C105" s="62"/>
+      <c r="C105" s="48"/>
       <c r="D105" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E105" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F105" s="49"/>
-      <c r="G105" s="28" t="s">
-        <v>198</v>
+        <v>168</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105" s="35"/>
+      <c r="G105" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -4697,16 +4720,16 @@
       <c r="B106" s="10">
         <v>92</v>
       </c>
-      <c r="C106" s="62"/>
-      <c r="D106" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="E106" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F106" s="49"/>
-      <c r="G106" s="28" t="s">
-        <v>198</v>
+      <c r="C106" s="48"/>
+      <c r="D106" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F106" s="35"/>
+      <c r="G106" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -4716,14 +4739,14 @@
       <c r="B107" s="10">
         <v>93</v>
       </c>
-      <c r="C107" s="62"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="F107" s="49"/>
-      <c r="G107" s="28" t="s">
-        <v>198</v>
+      <c r="C107" s="48"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F107" s="35"/>
+      <c r="G107" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -4733,16 +4756,16 @@
       <c r="B108" s="10">
         <v>94</v>
       </c>
-      <c r="C108" s="62"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="F108" s="49"/>
-      <c r="G108" s="28" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="35"/>
+      <c r="G108" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -4752,18 +4775,18 @@
       <c r="B109" s="10">
         <v>95</v>
       </c>
-      <c r="C109" s="39" t="s">
+      <c r="C109" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D109" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="E109" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="F109" s="70"/>
-      <c r="G109" s="28" t="s">
-        <v>197</v>
+      <c r="F109" s="33"/>
+      <c r="G109" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
@@ -4773,14 +4796,14 @@
       <c r="B110" s="10">
         <v>96</v>
       </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="F110" s="70"/>
-      <c r="G110" s="28" t="s">
-        <v>197</v>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="33"/>
+      <c r="G110" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
@@ -4790,16 +4813,16 @@
       <c r="B111" s="10">
         <v>97</v>
       </c>
-      <c r="C111" s="40"/>
+      <c r="C111" s="45"/>
       <c r="D111" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E111" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="F111" s="70"/>
-      <c r="G111" s="28" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F111" s="33"/>
+      <c r="G111" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -4809,16 +4832,16 @@
       <c r="B112" s="10">
         <v>98</v>
       </c>
-      <c r="C112" s="40"/>
-      <c r="D112" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E112" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="F112" s="70"/>
-      <c r="G112" s="28" t="s">
-        <v>197</v>
+      <c r="C112" s="45"/>
+      <c r="D112" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F112" s="33"/>
+      <c r="G112" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -4828,14 +4851,14 @@
       <c r="B113" s="10">
         <v>99</v>
       </c>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="F113" s="70"/>
-      <c r="G113" s="28" t="s">
-        <v>197</v>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113" s="33"/>
+      <c r="G113" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
@@ -4845,16 +4868,16 @@
       <c r="B114" s="10">
         <v>100</v>
       </c>
-      <c r="C114" s="40"/>
+      <c r="C114" s="45"/>
       <c r="D114" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F114" s="70"/>
-      <c r="G114" s="28" t="s">
-        <v>198</v>
+        <v>184</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F114" s="33"/>
+      <c r="G114" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
@@ -4864,19 +4887,19 @@
       <c r="B115" s="10">
         <v>101</v>
       </c>
-      <c r="C115" s="40"/>
-      <c r="D115" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="E115" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="F115" s="70"/>
-      <c r="G115" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H115" s="28" t="s">
-        <v>206</v>
+      <c r="C115" s="45"/>
+      <c r="D115" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F115" s="33"/>
+      <c r="G115" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H115" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="I115" s="11"/>
     </row>
@@ -4885,104 +4908,68 @@
       <c r="B116" s="10">
         <v>102</v>
       </c>
-      <c r="C116" s="40"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="F116" s="70"/>
-      <c r="G116" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H116" s="28" t="s">
-        <v>206</v>
+      <c r="C116" s="45"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F116" s="33"/>
+      <c r="G116" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H116" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="I116" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="D112:D113"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="D106:D107"/>
@@ -5006,56 +4993,100 @@
     <mergeCell ref="D77:D80"/>
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="중">
+      <formula>NOT(ISERROR(SEARCH("중",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="상">
+      <formula>NOT(ISERROR(SEARCH("상",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>아이디, 비밀번호, 이름, 생년월일 입력</t>
-  </si>
-  <si>
-    <t>아이디, 닉네임 중복 확인</t>
   </si>
   <si>
     <t>조건에 맞는 비밀번호만 입력받음</t>
@@ -721,6 +718,10 @@
   </si>
   <si>
     <t>와쟈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1211,141 +1212,131 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -2544,8 +2535,8 @@
   </sheetPr>
   <dimension ref="A1:IV116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2627,16 +2618,16 @@
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -2645,8 +2636,8 @@
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
-      <c r="E8" s="70" t="s">
-        <v>209</v>
+      <c r="E8" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>2</v>
@@ -2672,10 +2663,10 @@
       <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="60"/>
+      <c r="E9" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="65"/>
       <c r="G9" s="23" t="s">
         <v>9</v>
       </c>
@@ -2688,34 +2679,34 @@
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -2725,14 +2716,14 @@
       <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="34" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2742,16 +2733,16 @@
       <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2761,50 +2752,50 @@
       <c r="B14" s="15">
         <v>4</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="20">
         <v>5</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -2814,16 +2805,16 @@
       <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2833,16 +2824,16 @@
       <c r="B18" s="10">
         <v>7</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2852,16 +2843,16 @@
       <c r="B19" s="10">
         <v>8</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2871,14 +2862,14 @@
       <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="34" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2888,18 +2879,18 @@
       <c r="B21" s="10">
         <v>10</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -2909,16 +2900,16 @@
       <c r="B22" s="10">
         <v>11</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="35"/>
+      <c r="E22" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="47"/>
       <c r="G22" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2928,14 +2919,14 @@
       <c r="B23" s="10">
         <v>12</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="35"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="47"/>
       <c r="G23" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2945,16 +2936,16 @@
       <c r="B24" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="45"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2964,16 +2955,16 @@
       <c r="B25" s="10">
         <v>14</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2983,16 +2974,16 @@
       <c r="B26" s="10">
         <v>15</v>
       </c>
-      <c r="C26" s="45"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="35"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -3002,16 +2993,16 @@
       <c r="B27" s="10">
         <v>16</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -3021,46 +3012,46 @@
       <c r="B28" s="15">
         <v>17</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="38" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="39"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="20">
         <v>18</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -3070,16 +3061,16 @@
       <c r="B31" s="10">
         <v>19</v>
       </c>
-      <c r="C31" s="45"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3089,16 +3080,16 @@
       <c r="B32" s="10">
         <v>20</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3108,16 +3099,16 @@
       <c r="B33" s="10">
         <v>21</v>
       </c>
-      <c r="C33" s="45"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="37"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3374,16 +3365,16 @@
       <c r="B34" s="10">
         <v>22</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="65" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3393,14 +3384,14 @@
       <c r="B35" s="10">
         <v>23</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="34" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3410,14 +3401,14 @@
       <c r="B36" s="10">
         <v>24</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="34" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="35"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -3427,48 +3418,48 @@
       <c r="B37" s="15">
         <v>25</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="38" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="39"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="54"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="20">
         <v>26</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -3478,14 +3469,14 @@
       <c r="B40" s="10">
         <v>27</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="34" t="s">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="35"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3501,12 +3492,12 @@
       <c r="D41" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -3516,18 +3507,18 @@
       <c r="B42" s="10">
         <v>29</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3537,14 +3528,14 @@
       <c r="B43" s="10">
         <v>30</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="34" t="s">
+      <c r="C43" s="38"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="35"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3554,14 +3545,14 @@
       <c r="B44" s="10">
         <v>31</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="34" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="35"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3571,16 +3562,16 @@
       <c r="B45" s="10">
         <v>32</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="35"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -3590,16 +3581,16 @@
       <c r="B46" s="10">
         <v>33</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="38"/>
+      <c r="D46" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="35"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3609,14 +3600,14 @@
       <c r="B47" s="10">
         <v>34</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="34" t="s">
+      <c r="C47" s="38"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="35"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -3626,16 +3617,16 @@
       <c r="B48" s="10">
         <v>35</v>
       </c>
-      <c r="C48" s="45"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="35"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -3645,18 +3636,18 @@
       <c r="B49" s="10">
         <v>36</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="37" t="s">
         <v>77</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -3666,16 +3657,16 @@
       <c r="B50" s="10">
         <v>37</v>
       </c>
-      <c r="C50" s="45"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -3685,50 +3676,50 @@
       <c r="B51" s="15">
         <v>38</v>
       </c>
-      <c r="C51" s="58"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="39"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="54"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
     </row>
     <row r="53" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="20">
         <v>39</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="59" t="s">
         <v>85</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="43"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -3738,16 +3729,16 @@
       <c r="B54" s="10">
         <v>40</v>
       </c>
-      <c r="C54" s="47"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="35"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -3757,18 +3748,18 @@
       <c r="B55" s="10">
         <v>41</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="57" t="s">
         <v>90</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="35"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -3778,16 +3769,16 @@
       <c r="B56" s="10">
         <v>42</v>
       </c>
-      <c r="C56" s="47"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -3797,16 +3788,16 @@
       <c r="B57" s="10">
         <v>43</v>
       </c>
-      <c r="C57" s="47"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="35"/>
+      <c r="F57" s="47"/>
       <c r="G57" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -3816,18 +3807,18 @@
       <c r="B58" s="10">
         <v>44</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="57" t="s">
         <v>96</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="35"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -3837,16 +3828,16 @@
       <c r="B59" s="10">
         <v>45</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="44" t="s">
+      <c r="C59" s="58"/>
+      <c r="D59" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="35"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -3856,14 +3847,14 @@
       <c r="B60" s="10">
         <v>46</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="34" t="s">
+      <c r="C60" s="58"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="35"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -3873,18 +3864,18 @@
       <c r="B61" s="10">
         <v>47</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="67" t="s">
         <v>101</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -3894,14 +3885,14 @@
       <c r="B62" s="10">
         <v>48</v>
       </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F62" s="41"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="61"/>
       <c r="G62" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -3911,16 +3902,16 @@
       <c r="B63" s="10">
         <v>49</v>
       </c>
-      <c r="C63" s="45"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" s="41"/>
+        <v>201</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="61"/>
       <c r="G63" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -3930,16 +3921,16 @@
       <c r="B64" s="10">
         <v>50</v>
       </c>
-      <c r="C64" s="45"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" s="35"/>
+        <v>202</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="47"/>
       <c r="G64" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -3955,12 +3946,12 @@
       <c r="D65" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="35"/>
+      <c r="F65" s="47"/>
       <c r="G65" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -3976,12 +3967,12 @@
       <c r="D66" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F66" s="35"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -3991,18 +3982,18 @@
       <c r="B67" s="10">
         <v>53</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="F67" s="35"/>
+      <c r="F67" s="47"/>
       <c r="G67" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -4012,14 +4003,14 @@
       <c r="B68" s="10">
         <v>54</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" s="35"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="47"/>
       <c r="G68" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -4029,17 +4020,17 @@
       <c r="B69" s="10">
         <v>55</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="35"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="47"/>
       <c r="G69" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I69" s="11"/>
     </row>
@@ -4048,16 +4039,16 @@
       <c r="B70" s="10">
         <v>56</v>
       </c>
-      <c r="C70" s="47"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E70" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="35"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -4067,21 +4058,21 @@
       <c r="B71" s="10">
         <v>57</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="E71" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I71" s="11"/>
     </row>
@@ -4090,19 +4081,19 @@
       <c r="B72" s="10">
         <v>58</v>
       </c>
-      <c r="C72" s="47"/>
+      <c r="C72" s="58"/>
       <c r="D72" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E72" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="35"/>
+      <c r="F72" s="47"/>
       <c r="G72" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I72" s="11"/>
     </row>
@@ -4111,16 +4102,16 @@
       <c r="B73" s="10">
         <v>59</v>
       </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="44" t="s">
+      <c r="C73" s="58"/>
+      <c r="D73" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="35"/>
+      <c r="E73" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="47"/>
       <c r="G73" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -4130,14 +4121,14 @@
       <c r="B74" s="10">
         <v>60</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="35"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="47"/>
       <c r="G74" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -4147,18 +4138,18 @@
       <c r="B75" s="10">
         <v>61</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="E75" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F75" s="35"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -4168,14 +4159,14 @@
       <c r="B76" s="10">
         <v>62</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" s="35"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="47"/>
       <c r="G76" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -4185,18 +4176,18 @@
       <c r="B77" s="10">
         <v>63</v>
       </c>
-      <c r="C77" s="46" t="s">
+      <c r="C77" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="E77" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="35"/>
+      <c r="F77" s="47"/>
       <c r="G77" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -4206,14 +4197,14 @@
       <c r="B78" s="10">
         <v>64</v>
       </c>
-      <c r="C78" s="47"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F78" s="35"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="47"/>
       <c r="G78" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -4223,14 +4214,14 @@
       <c r="B79" s="10">
         <v>65</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F79" s="35"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="47"/>
       <c r="G79" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -4240,14 +4231,14 @@
       <c r="B80" s="10">
         <v>66</v>
       </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80" s="35"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" s="47"/>
       <c r="G80" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -4257,16 +4248,16 @@
       <c r="B81" s="10">
         <v>67</v>
       </c>
-      <c r="C81" s="47"/>
-      <c r="D81" s="46" t="s">
+      <c r="C81" s="58"/>
+      <c r="D81" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E81" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="35"/>
+      <c r="F81" s="47"/>
       <c r="G81" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -4276,14 +4267,14 @@
       <c r="B82" s="10">
         <v>68</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F82" s="35"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82" s="47"/>
       <c r="G82" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -4293,18 +4284,18 @@
       <c r="B83" s="10">
         <v>69</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="E83" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E83" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F83" s="35"/>
+      <c r="F83" s="47"/>
       <c r="G83" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -4314,16 +4305,16 @@
       <c r="B84" s="10">
         <v>70</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="44" t="s">
+      <c r="C84" s="38"/>
+      <c r="D84" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="F84" s="35"/>
+      <c r="E84" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="47"/>
       <c r="G84" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -4333,14 +4324,14 @@
       <c r="B85" s="10">
         <v>71</v>
       </c>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="35"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="47"/>
       <c r="G85" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -4350,14 +4341,14 @@
       <c r="B86" s="10">
         <v>72</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F86" s="35"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="47"/>
       <c r="G86" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -4367,16 +4358,16 @@
       <c r="B87" s="10">
         <v>73</v>
       </c>
-      <c r="C87" s="45"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F87" s="35"/>
+      <c r="F87" s="47"/>
       <c r="G87" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -4386,16 +4377,16 @@
       <c r="B88" s="10">
         <v>74</v>
       </c>
-      <c r="C88" s="45"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E88" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F88" s="35"/>
+      <c r="F88" s="47"/>
       <c r="G88" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -4405,19 +4396,19 @@
       <c r="B89" s="10">
         <v>75</v>
       </c>
-      <c r="C89" s="45"/>
-      <c r="D89" s="44" t="s">
+      <c r="C89" s="38"/>
+      <c r="D89" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E89" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F89" s="35"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I89" s="11"/>
     </row>
@@ -4426,17 +4417,17 @@
       <c r="B90" s="10">
         <v>76</v>
       </c>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F90" s="35"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F90" s="47"/>
       <c r="G90" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I90" s="11"/>
     </row>
@@ -4445,17 +4436,17 @@
       <c r="B91" s="10">
         <v>77</v>
       </c>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" s="35"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F91" s="47"/>
       <c r="G91" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H91" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I91" s="11"/>
     </row>
@@ -4464,17 +4455,17 @@
       <c r="B92" s="10">
         <v>78</v>
       </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="F92" s="35"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="47"/>
       <c r="G92" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H92" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I92" s="11"/>
     </row>
@@ -4483,18 +4474,18 @@
       <c r="B93" s="10">
         <v>79</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="44" t="s">
+      <c r="E93" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E93" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F93" s="35"/>
+      <c r="F93" s="47"/>
       <c r="G93" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
@@ -4504,14 +4495,14 @@
       <c r="B94" s="10">
         <v>80</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F94" s="35"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="47"/>
       <c r="G94" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -4521,14 +4512,14 @@
       <c r="B95" s="10">
         <v>81</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F95" s="35"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="47"/>
       <c r="G95" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -4538,16 +4529,16 @@
       <c r="B96" s="10">
         <v>82</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="46" t="s">
+      <c r="C96" s="66"/>
+      <c r="D96" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F96" s="35"/>
+      <c r="F96" s="47"/>
       <c r="G96" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -4557,14 +4548,14 @@
       <c r="B97" s="10">
         <v>83</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="F97" s="35"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" s="47"/>
       <c r="G97" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -4574,16 +4565,16 @@
       <c r="B98" s="10">
         <v>84</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="46" t="s">
+      <c r="C98" s="66"/>
+      <c r="D98" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="F98" s="35"/>
+      <c r="F98" s="47"/>
       <c r="G98" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -4593,14 +4584,14 @@
       <c r="B99" s="10">
         <v>85</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99" s="35"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="47"/>
       <c r="G99" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -4610,16 +4601,16 @@
       <c r="B100" s="10">
         <v>86</v>
       </c>
-      <c r="C100" s="48"/>
+      <c r="C100" s="66"/>
       <c r="D100" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="E100" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="F100" s="35"/>
+      <c r="F100" s="47"/>
       <c r="G100" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -4629,16 +4620,16 @@
       <c r="B101" s="10">
         <v>87</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E101" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="F101" s="37"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E101" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="63"/>
       <c r="G101" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -4648,14 +4639,14 @@
       <c r="B102" s="10">
         <v>88</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F102" s="35"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F102" s="47"/>
       <c r="G102" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -4665,16 +4656,16 @@
       <c r="B103" s="10">
         <v>89</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="46" t="s">
+      <c r="C103" s="66"/>
+      <c r="D103" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E103" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="E103" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="F103" s="35"/>
+      <c r="F103" s="47"/>
       <c r="G103" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -4684,14 +4675,14 @@
       <c r="B104" s="10">
         <v>90</v>
       </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="F104" s="35"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104" s="47"/>
       <c r="G104" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -4701,16 +4692,16 @@
       <c r="B105" s="10">
         <v>91</v>
       </c>
-      <c r="C105" s="48"/>
+      <c r="C105" s="66"/>
       <c r="D105" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="E105" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F105" s="35"/>
+      <c r="F105" s="47"/>
       <c r="G105" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -4720,16 +4711,16 @@
       <c r="B106" s="10">
         <v>92</v>
       </c>
-      <c r="C106" s="48"/>
-      <c r="D106" s="46" t="s">
+      <c r="C106" s="66"/>
+      <c r="D106" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E106" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="E106" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F106" s="35"/>
+      <c r="F106" s="47"/>
       <c r="G106" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -4739,14 +4730,14 @@
       <c r="B107" s="10">
         <v>93</v>
       </c>
-      <c r="C107" s="48"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="F107" s="35"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F107" s="47"/>
       <c r="G107" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -4756,16 +4747,16 @@
       <c r="B108" s="10">
         <v>94</v>
       </c>
-      <c r="C108" s="48"/>
+      <c r="C108" s="66"/>
       <c r="D108" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="E108" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="F108" s="35"/>
+      <c r="F108" s="47"/>
       <c r="G108" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -4775,18 +4766,18 @@
       <c r="B109" s="10">
         <v>95</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="C109" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D109" s="44" t="s">
+      <c r="E109" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="E109" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F109" s="33"/>
+      <c r="F109" s="70"/>
       <c r="G109" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
@@ -4796,14 +4787,14 @@
       <c r="B110" s="10">
         <v>96</v>
       </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F110" s="33"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="F110" s="70"/>
       <c r="G110" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
@@ -4813,16 +4804,16 @@
       <c r="B111" s="10">
         <v>97</v>
       </c>
-      <c r="C111" s="45"/>
+      <c r="C111" s="38"/>
       <c r="D111" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E111" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F111" s="33"/>
+      <c r="F111" s="70"/>
       <c r="G111" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -4832,16 +4823,16 @@
       <c r="B112" s="10">
         <v>98</v>
       </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="44" t="s">
+      <c r="C112" s="38"/>
+      <c r="D112" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E112" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="E112" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F112" s="33"/>
+      <c r="F112" s="70"/>
       <c r="G112" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -4851,14 +4842,14 @@
       <c r="B113" s="10">
         <v>99</v>
       </c>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F113" s="33"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="F113" s="70"/>
       <c r="G113" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
@@ -4868,16 +4859,16 @@
       <c r="B114" s="10">
         <v>100</v>
       </c>
-      <c r="C114" s="45"/>
+      <c r="C114" s="38"/>
       <c r="D114" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E114" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="E114" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F114" s="33"/>
+      <c r="F114" s="70"/>
       <c r="G114" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
@@ -4887,19 +4878,19 @@
       <c r="B115" s="10">
         <v>101</v>
       </c>
-      <c r="C115" s="45"/>
-      <c r="D115" s="46" t="s">
+      <c r="C115" s="38"/>
+      <c r="D115" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E115" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="E115" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F115" s="33"/>
+      <c r="F115" s="70"/>
       <c r="G115" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H115" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I115" s="11"/>
     </row>
@@ -4908,22 +4899,151 @@
       <c r="B116" s="10">
         <v>102</v>
       </c>
-      <c r="C116" s="45"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F116" s="33"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="F116" s="70"/>
       <c r="G116" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H116" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I116" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="153">
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C93:C108"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="C49:C51"/>
@@ -4948,142 +5068,13 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C93:C108"/>
-    <mergeCell ref="C109:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="중">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="중">
       <formula>NOT(ISERROR(SEARCH("중",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="상">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="상">
       <formula>NOT(ISERROR(SEARCH("상",G1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/요구사항 정의서.xlsx
+++ b/요구사항 정의서.xlsx
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="210">
-  <si>
-    <t>요구사항 정의서</t>
-  </si>
   <si>
     <t>프로젝트 명</t>
   </si>
@@ -722,6 +719,10 @@
   </si>
   <si>
     <t>아이디 중복 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 명세서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1215,8 +1216,95 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1227,18 +1315,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,85 +1324,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2535,8 +2536,8 @@
   </sheetPr>
   <dimension ref="A1:IV116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:F75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2618,95 +2619,95 @@
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="B7" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>4</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="23" t="s">
         <v>10</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -2716,14 +2717,14 @@
       <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="47"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="36"/>
       <c r="G12" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2733,16 +2734,16 @@
       <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2752,50 +2753,50 @@
       <c r="B14" s="15">
         <v>4</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="B15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="20">
         <v>5</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -2805,16 +2806,16 @@
       <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2824,16 +2825,16 @@
       <c r="B18" s="10">
         <v>7</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2843,16 +2844,16 @@
       <c r="B19" s="10">
         <v>8</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2862,14 +2863,14 @@
       <c r="B20" s="10">
         <v>9</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="47"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2879,18 +2880,18 @@
       <c r="B21" s="10">
         <v>10</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -2900,16 +2901,16 @@
       <c r="B22" s="10">
         <v>11</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22" s="47"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="36"/>
       <c r="G22" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2919,14 +2920,14 @@
       <c r="B23" s="10">
         <v>12</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="36"/>
       <c r="G23" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2936,16 +2937,16 @@
       <c r="B24" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2955,16 +2956,16 @@
       <c r="B25" s="10">
         <v>14</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2974,16 +2975,16 @@
       <c r="B26" s="10">
         <v>15</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -2993,16 +2994,16 @@
       <c r="B27" s="10">
         <v>16</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="37" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -3012,46 +3013,46 @@
       <c r="B28" s="15">
         <v>17</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="49"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="48"/>
       <c r="G28" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
+      <c r="B29" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="20">
         <v>18</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -3061,16 +3062,16 @@
       <c r="B31" s="10">
         <v>19</v>
       </c>
-      <c r="C31" s="38"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3080,16 +3081,16 @@
       <c r="B32" s="10">
         <v>20</v>
       </c>
-      <c r="C32" s="38"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3099,16 +3100,16 @@
       <c r="B33" s="10">
         <v>21</v>
       </c>
-      <c r="C33" s="38"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3365,16 +3366,16 @@
       <c r="B34" s="10">
         <v>22</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="41" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="47"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3384,14 +3385,14 @@
       <c r="B35" s="10">
         <v>23</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="47"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="36"/>
       <c r="G35" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3401,14 +3402,14 @@
       <c r="B36" s="10">
         <v>24</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="47"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="36"/>
       <c r="G36" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -3418,48 +3419,48 @@
       <c r="B37" s="15">
         <v>25</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="49"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="48"/>
       <c r="G37" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
+      <c r="B38" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="20">
         <v>26</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="E39" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -3469,14 +3470,14 @@
       <c r="B40" s="10">
         <v>27</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="47"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="36"/>
       <c r="G40" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3487,17 +3488,17 @@
         <v>28</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="47"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -3507,18 +3508,18 @@
       <c r="B42" s="10">
         <v>29</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="E42" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3528,14 +3529,14 @@
       <c r="B43" s="10">
         <v>30</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="47"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="36"/>
       <c r="G43" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3545,14 +3546,14 @@
       <c r="B44" s="10">
         <v>31</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="47"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="36"/>
       <c r="G44" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3562,16 +3563,16 @@
       <c r="B45" s="10">
         <v>32</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="47"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -3581,16 +3582,16 @@
       <c r="B46" s="10">
         <v>33</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="57" t="s">
+      <c r="C46" s="50"/>
+      <c r="D46" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="47"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3600,14 +3601,14 @@
       <c r="B47" s="10">
         <v>34</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="47"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="36"/>
       <c r="G47" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -3617,16 +3618,16 @@
       <c r="B48" s="10">
         <v>35</v>
       </c>
-      <c r="C48" s="38"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -3636,18 +3637,18 @@
       <c r="B49" s="10">
         <v>36</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="47"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -3657,16 +3658,16 @@
       <c r="B50" s="10">
         <v>37</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -3676,50 +3677,50 @@
       <c r="B51" s="15">
         <v>38</v>
       </c>
-      <c r="C51" s="39"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="49"/>
+      <c r="F51" s="48"/>
       <c r="G51" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
+      <c r="B52" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="20">
         <v>39</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="E53" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" s="45"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -3729,16 +3730,16 @@
       <c r="B54" s="10">
         <v>40</v>
       </c>
-      <c r="C54" s="58"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="47"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -3748,18 +3749,18 @@
       <c r="B55" s="10">
         <v>41</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="E55" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="47"/>
+      <c r="F55" s="36"/>
       <c r="G55" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -3769,16 +3770,16 @@
       <c r="B56" s="10">
         <v>42</v>
       </c>
-      <c r="C56" s="58"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="47"/>
+      <c r="F56" s="36"/>
       <c r="G56" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -3788,16 +3789,16 @@
       <c r="B57" s="10">
         <v>43</v>
       </c>
-      <c r="C57" s="58"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="47"/>
+        <v>87</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="36"/>
       <c r="G57" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -3807,18 +3808,18 @@
       <c r="B58" s="10">
         <v>44</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="47"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -3828,16 +3829,16 @@
       <c r="B59" s="10">
         <v>45</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="47"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="36"/>
       <c r="G59" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -3847,14 +3848,14 @@
       <c r="B60" s="10">
         <v>46</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="47"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="36"/>
       <c r="G60" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -3864,18 +3865,18 @@
       <c r="B61" s="10">
         <v>47</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="67" t="s">
-        <v>101</v>
-      </c>
       <c r="E61" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -3885,14 +3886,14 @@
       <c r="B62" s="10">
         <v>48</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="F62" s="61"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="40"/>
       <c r="G62" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -3902,16 +3903,16 @@
       <c r="B63" s="10">
         <v>49</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="F63" s="61"/>
+        <v>196</v>
+      </c>
+      <c r="F63" s="40"/>
       <c r="G63" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -3921,16 +3922,16 @@
       <c r="B64" s="10">
         <v>50</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" s="47"/>
+        <v>201</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="36"/>
       <c r="G64" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -3941,17 +3942,17 @@
         <v>51</v>
       </c>
       <c r="C65" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="E65" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="47"/>
+      <c r="F65" s="36"/>
       <c r="G65" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -3962,17 +3963,17 @@
         <v>52</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="E66" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="47"/>
+      <c r="F66" s="36"/>
       <c r="G66" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -3982,18 +3983,18 @@
       <c r="B67" s="10">
         <v>53</v>
       </c>
-      <c r="C67" s="57" t="s">
+      <c r="C67" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="E67" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E67" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="47"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -4003,14 +4004,14 @@
       <c r="B68" s="10">
         <v>54</v>
       </c>
-      <c r="C68" s="58"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="47"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="36"/>
       <c r="G68" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -4020,17 +4021,17 @@
       <c r="B69" s="10">
         <v>55</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" s="47"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="36"/>
       <c r="G69" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I69" s="11"/>
     </row>
@@ -4039,16 +4040,16 @@
       <c r="B70" s="10">
         <v>56</v>
       </c>
-      <c r="C70" s="58"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E70" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" s="47"/>
+      <c r="F70" s="36"/>
       <c r="G70" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -4058,21 +4059,21 @@
       <c r="B71" s="10">
         <v>57</v>
       </c>
-      <c r="C71" s="57" t="s">
+      <c r="C71" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="E71" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E71" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F71" s="47"/>
+      <c r="F71" s="36"/>
       <c r="G71" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I71" s="11"/>
     </row>
@@ -4081,19 +4082,19 @@
       <c r="B72" s="10">
         <v>58</v>
       </c>
-      <c r="C72" s="58"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="47"/>
+      <c r="F72" s="36"/>
       <c r="G72" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I72" s="11"/>
     </row>
@@ -4102,16 +4103,16 @@
       <c r="B73" s="10">
         <v>59</v>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="47"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="36"/>
       <c r="G73" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -4121,14 +4122,14 @@
       <c r="B74" s="10">
         <v>60</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="47"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="36"/>
       <c r="G74" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -4138,18 +4139,18 @@
       <c r="B75" s="10">
         <v>61</v>
       </c>
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="E75" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E75" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="47"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -4159,14 +4160,14 @@
       <c r="B76" s="10">
         <v>62</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F76" s="47"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="36"/>
       <c r="G76" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -4176,18 +4177,18 @@
       <c r="B77" s="10">
         <v>63</v>
       </c>
-      <c r="C77" s="57" t="s">
+      <c r="C77" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="E77" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="F77" s="47"/>
+      <c r="F77" s="36"/>
       <c r="G77" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -4197,14 +4198,14 @@
       <c r="B78" s="10">
         <v>64</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="47"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" s="36"/>
       <c r="G78" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -4214,14 +4215,14 @@
       <c r="B79" s="10">
         <v>65</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="47"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="36"/>
       <c r="G79" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -4231,14 +4232,14 @@
       <c r="B80" s="10">
         <v>66</v>
       </c>
-      <c r="C80" s="58"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="F80" s="47"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" s="36"/>
       <c r="G80" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -4248,16 +4249,16 @@
       <c r="B81" s="10">
         <v>67</v>
       </c>
-      <c r="C81" s="58"/>
-      <c r="D81" s="57" t="s">
+      <c r="C81" s="52"/>
+      <c r="D81" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F81" s="47"/>
+      <c r="F81" s="36"/>
       <c r="G81" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -4267,14 +4268,14 @@
       <c r="B82" s="10">
         <v>68</v>
       </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="F82" s="47"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="36"/>
       <c r="G82" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -4284,18 +4285,18 @@
       <c r="B83" s="10">
         <v>69</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="E83" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F83" s="47"/>
+      <c r="F83" s="36"/>
       <c r="G83" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -4305,16 +4306,16 @@
       <c r="B84" s="10">
         <v>70</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="47"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="36"/>
       <c r="G84" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -4324,14 +4325,14 @@
       <c r="B85" s="10">
         <v>71</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" s="47"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="36"/>
       <c r="G85" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -4341,14 +4342,14 @@
       <c r="B86" s="10">
         <v>72</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" s="47"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="36"/>
       <c r="G86" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -4358,16 +4359,16 @@
       <c r="B87" s="10">
         <v>73</v>
       </c>
-      <c r="C87" s="38"/>
+      <c r="C87" s="50"/>
       <c r="D87" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E87" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F87" s="47"/>
+      <c r="F87" s="36"/>
       <c r="G87" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -4377,16 +4378,16 @@
       <c r="B88" s="10">
         <v>74</v>
       </c>
-      <c r="C88" s="38"/>
+      <c r="C88" s="50"/>
       <c r="D88" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E88" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="47"/>
+      <c r="F88" s="36"/>
       <c r="G88" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -4396,19 +4397,19 @@
       <c r="B89" s="10">
         <v>75</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="37" t="s">
+      <c r="C89" s="50"/>
+      <c r="D89" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E89" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89" s="47"/>
+      <c r="F89" s="36"/>
       <c r="G89" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I89" s="11"/>
     </row>
@@ -4417,17 +4418,17 @@
       <c r="B90" s="10">
         <v>76</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" s="47"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="36"/>
       <c r="G90" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I90" s="11"/>
     </row>
@@ -4436,17 +4437,17 @@
       <c r="B91" s="10">
         <v>77</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F91" s="47"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" s="36"/>
       <c r="G91" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H91" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I91" s="11"/>
     </row>
@@ -4455,17 +4456,17 @@
       <c r="B92" s="10">
         <v>78</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F92" s="47"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" s="36"/>
       <c r="G92" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H92" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I92" s="11"/>
     </row>
@@ -4474,18 +4475,18 @@
       <c r="B93" s="10">
         <v>79</v>
       </c>
-      <c r="C93" s="66" t="s">
+      <c r="C93" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="E93" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E93" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F93" s="47"/>
+      <c r="F93" s="36"/>
       <c r="G93" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
@@ -4495,14 +4496,14 @@
       <c r="B94" s="10">
         <v>80</v>
       </c>
-      <c r="C94" s="66"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" s="47"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="36"/>
       <c r="G94" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -4512,14 +4513,14 @@
       <c r="B95" s="10">
         <v>81</v>
       </c>
-      <c r="C95" s="66"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="F95" s="47"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" s="36"/>
       <c r="G95" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -4529,16 +4530,16 @@
       <c r="B96" s="10">
         <v>82</v>
       </c>
-      <c r="C96" s="66"/>
-      <c r="D96" s="57" t="s">
+      <c r="C96" s="53"/>
+      <c r="D96" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="E96" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="F96" s="47"/>
+      <c r="F96" s="36"/>
       <c r="G96" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -4548,14 +4549,14 @@
       <c r="B97" s="10">
         <v>83</v>
       </c>
-      <c r="C97" s="66"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F97" s="47"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97" s="36"/>
       <c r="G97" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -4565,16 +4566,16 @@
       <c r="B98" s="10">
         <v>84</v>
       </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="57" t="s">
+      <c r="C98" s="53"/>
+      <c r="D98" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E98" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="F98" s="47"/>
+      <c r="F98" s="36"/>
       <c r="G98" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -4584,14 +4585,14 @@
       <c r="B99" s="10">
         <v>85</v>
       </c>
-      <c r="C99" s="66"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="F99" s="47"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="36"/>
       <c r="G99" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -4601,16 +4602,16 @@
       <c r="B100" s="10">
         <v>86</v>
       </c>
-      <c r="C100" s="66"/>
+      <c r="C100" s="53"/>
       <c r="D100" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E100" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="F100" s="47"/>
+      <c r="F100" s="36"/>
       <c r="G100" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -4620,16 +4621,16 @@
       <c r="B101" s="10">
         <v>87</v>
       </c>
-      <c r="C101" s="66"/>
-      <c r="D101" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E101" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F101" s="63"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F101" s="38"/>
       <c r="G101" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -4639,14 +4640,14 @@
       <c r="B102" s="10">
         <v>88</v>
       </c>
-      <c r="C102" s="66"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F102" s="47"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F102" s="36"/>
       <c r="G102" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -4656,16 +4657,16 @@
       <c r="B103" s="10">
         <v>89</v>
       </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="57" t="s">
+      <c r="C103" s="53"/>
+      <c r="D103" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E103" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="F103" s="47"/>
+      <c r="F103" s="36"/>
       <c r="G103" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -4675,14 +4676,14 @@
       <c r="B104" s="10">
         <v>90</v>
       </c>
-      <c r="C104" s="66"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F104" s="47"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" s="36"/>
       <c r="G104" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -4692,16 +4693,16 @@
       <c r="B105" s="10">
         <v>91</v>
       </c>
-      <c r="C105" s="66"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E105" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E105" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F105" s="47"/>
+      <c r="F105" s="36"/>
       <c r="G105" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -4711,16 +4712,16 @@
       <c r="B106" s="10">
         <v>92</v>
       </c>
-      <c r="C106" s="66"/>
-      <c r="D106" s="57" t="s">
+      <c r="C106" s="53"/>
+      <c r="D106" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E106" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="F106" s="47"/>
+      <c r="F106" s="36"/>
       <c r="G106" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -4730,14 +4731,14 @@
       <c r="B107" s="10">
         <v>93</v>
       </c>
-      <c r="C107" s="66"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="F107" s="47"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F107" s="36"/>
       <c r="G107" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -4747,16 +4748,16 @@
       <c r="B108" s="10">
         <v>94</v>
       </c>
-      <c r="C108" s="66"/>
+      <c r="C108" s="53"/>
       <c r="D108" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E108" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E108" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="F108" s="47"/>
+      <c r="F108" s="36"/>
       <c r="G108" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -4766,18 +4767,18 @@
       <c r="B109" s="10">
         <v>95</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D109" s="37" t="s">
+      <c r="E109" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E109" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="F109" s="70"/>
+      <c r="F109" s="34"/>
       <c r="G109" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
@@ -4787,14 +4788,14 @@
       <c r="B110" s="10">
         <v>96</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="F110" s="70"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F110" s="34"/>
       <c r="G110" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
@@ -4804,16 +4805,16 @@
       <c r="B111" s="10">
         <v>97</v>
       </c>
-      <c r="C111" s="38"/>
+      <c r="C111" s="50"/>
       <c r="D111" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E111" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="F111" s="70"/>
+      <c r="F111" s="34"/>
       <c r="G111" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -4823,16 +4824,16 @@
       <c r="B112" s="10">
         <v>98</v>
       </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="37" t="s">
+      <c r="C112" s="50"/>
+      <c r="D112" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E112" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E112" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="F112" s="70"/>
+      <c r="F112" s="34"/>
       <c r="G112" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -4842,14 +4843,14 @@
       <c r="B113" s="10">
         <v>99</v>
       </c>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="F113" s="70"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F113" s="34"/>
       <c r="G113" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
@@ -4859,16 +4860,16 @@
       <c r="B114" s="10">
         <v>100</v>
       </c>
-      <c r="C114" s="38"/>
+      <c r="C114" s="50"/>
       <c r="D114" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E114" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E114" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="F114" s="70"/>
+      <c r="F114" s="34"/>
       <c r="G114" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
@@ -4878,19 +4879,19 @@
       <c r="B115" s="10">
         <v>101</v>
       </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="57" t="s">
+      <c r="C115" s="50"/>
+      <c r="D115" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E115" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E115" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="F115" s="70"/>
+      <c r="F115" s="34"/>
       <c r="G115" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H115" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I115" s="11"/>
     </row>
@@ -4899,148 +4900,22 @@
       <c r="B116" s="10">
         <v>102</v>
       </c>
-      <c r="C116" s="38"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F116" s="70"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F116" s="34"/>
       <c r="G116" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H116" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I116" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C93:C108"/>
-    <mergeCell ref="C109:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
@@ -5065,9 +4940,135 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="C30:C37"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C93:C108"/>
+    <mergeCell ref="C109:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
